--- a/sriramModel-nelson-melancholic-patientID_13-sims-cort-5-iterations.xlsx
+++ b/sriramModel-nelson-melancholic-patientID_13-sims-cort-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.162201354030836</v>
+        <v>2.164153817281596</v>
       </c>
       <c r="C2">
-        <v>2.14742448371987</v>
+        <v>2.162329812769625</v>
       </c>
       <c r="D2">
-        <v>2.164111174700126</v>
+        <v>2.162366959504869</v>
       </c>
       <c r="E2">
-        <v>2.163658369941617</v>
+        <v>2.16513238526406</v>
       </c>
       <c r="F2">
-        <v>2.162544198208836</v>
+        <v>2.116596803776756</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.315458508505432</v>
+        <v>2.319160821370048</v>
       </c>
       <c r="C3">
-        <v>2.288589481904036</v>
+        <v>2.316457068269246</v>
       </c>
       <c r="D3">
-        <v>2.319072485507768</v>
+        <v>2.31578059173969</v>
       </c>
       <c r="E3">
-        <v>2.318300414656184</v>
+        <v>2.321521803492223</v>
       </c>
       <c r="F3">
-        <v>2.316530758852528</v>
+        <v>2.229225879272573</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.460304671249845</v>
+        <v>2.465561273566145</v>
       </c>
       <c r="C4">
-        <v>2.42382507633849</v>
+        <v>2.46286128689434</v>
       </c>
       <c r="D4">
-        <v>2.465425057891891</v>
+        <v>2.460769099649646</v>
       </c>
       <c r="E4">
-        <v>2.464462255083103</v>
+        <v>2.469672215301141</v>
       </c>
       <c r="F4">
-        <v>2.4624578881479</v>
+        <v>2.338088784274049</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.597246393097927</v>
+        <v>2.60386880614861</v>
       </c>
       <c r="C5">
-        <v>2.553445989514203</v>
+        <v>2.60199754229674</v>
       </c>
       <c r="D5">
-        <v>2.60368375211846</v>
+        <v>2.597834729387106</v>
       </c>
       <c r="E5">
-        <v>2.602653265811568</v>
+        <v>2.610063204698997</v>
       </c>
       <c r="F5">
-        <v>2.600799093363317</v>
+        <v>2.443379126237428</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.726764699691188</v>
+        <v>2.73457184799827</v>
       </c>
       <c r="C6">
-        <v>2.677751961385828</v>
+        <v>2.734297426050442</v>
       </c>
       <c r="D6">
-        <v>2.734337534011209</v>
+        <v>2.727454846231204</v>
       </c>
       <c r="E6">
-        <v>2.733357180876792</v>
+        <v>2.743150240559608</v>
       </c>
       <c r="F6">
-        <v>2.732004216383324</v>
+        <v>2.545283131401497</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.849316690483068</v>
+        <v>2.858134923670632</v>
       </c>
       <c r="C7">
-        <v>2.797028907399715</v>
+        <v>2.860170751664687</v>
       </c>
       <c r="D7">
-        <v>2.857851751409833</v>
+        <v>2.850083444626117</v>
       </c>
       <c r="E7">
-        <v>2.857033681489118</v>
+        <v>2.869366826054585</v>
       </c>
       <c r="F7">
-        <v>2.85650083528876</v>
+        <v>2.643979608969826</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.965336686305024</v>
+        <v>2.974999780268223</v>
       </c>
       <c r="C8">
-        <v>2.91154951073959</v>
+        <v>2.980006431036422</v>
       </c>
       <c r="D8">
-        <v>2.974668583567867</v>
+        <v>2.966152259850586</v>
       </c>
       <c r="E8">
-        <v>2.974119534268152</v>
+        <v>2.989125000801253</v>
       </c>
       <c r="F8">
-        <v>2.974695396620505</v>
+        <v>2.739640333163124</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.075237355284691</v>
+        <v>3.085586471423303</v>
       </c>
       <c r="C9">
-        <v>3.021573734867308</v>
+        <v>3.09417348295908</v>
       </c>
       <c r="D9">
-        <v>3.08520854894234</v>
+        <v>3.076071601866102</v>
       </c>
       <c r="E9">
-        <v>3.085029727307053</v>
+        <v>3.102816581378923</v>
       </c>
       <c r="F9">
-        <v>3.08697421213204</v>
+        <v>2.832430375324766</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.179410796189125</v>
+        <v>3.190294498060543</v>
       </c>
       <c r="C10">
-        <v>3.127349431269663</v>
+        <v>3.203022121876495</v>
       </c>
       <c r="D10">
-        <v>3.189871789190886</v>
+        <v>3.180231767064968</v>
       </c>
       <c r="E10">
-        <v>3.190158547788724</v>
+        <v>3.210814431971889</v>
       </c>
       <c r="F10">
-        <v>3.19370446978631</v>
+        <v>2.92250822473425</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.278229473904339</v>
+        <v>3.28950379516427</v>
       </c>
       <c r="C11">
-        <v>3.22911294528189</v>
+        <v>3.306884702741077</v>
       </c>
       <c r="D11">
-        <v>3.289038627640402</v>
+        <v>3.279003912185353</v>
       </c>
       <c r="E11">
-        <v>3.289880530572253</v>
+        <v>3.313473035827723</v>
       </c>
       <c r="F11">
-        <v>3.29523508679585</v>
+        <v>3.010025998538523</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.372047292908771</v>
+        <v>3.383575648207278</v>
       </c>
       <c r="C12">
-        <v>3.327089647049287</v>
+        <v>3.40607658650188</v>
       </c>
       <c r="D12">
-        <v>3.383070621731429</v>
+        <v>3.372740875684955</v>
       </c>
       <c r="E12">
-        <v>3.384551558743831</v>
+        <v>3.411129388745162</v>
       </c>
       <c r="F12">
-        <v>3.391897668690445</v>
+        <v>3.095129609243157</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.461200566570873</v>
+        <v>3.472853604634669</v>
       </c>
       <c r="C13">
-        <v>3.421494421073298</v>
+        <v>3.500896989982313</v>
       </c>
       <c r="D13">
-        <v>3.47231157090411</v>
+        <v>3.461778113260426</v>
       </c>
       <c r="E13">
-        <v>3.474509806478996</v>
+        <v>3.504103942779523</v>
       </c>
       <c r="F13">
-        <v>3.484007440982316</v>
+        <v>3.177959141442445</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.54600885061042</v>
+        <v>3.557664349569973</v>
       </c>
       <c r="C14">
-        <v>3.512532140083203</v>
+        <v>3.59162975731822</v>
       </c>
       <c r="D14">
-        <v>3.557088405952566</v>
+        <v>3.546434590484999</v>
       </c>
       <c r="E14">
-        <v>3.560076550631736</v>
+        <v>3.592701526031636</v>
       </c>
       <c r="F14">
-        <v>3.571864020459577</v>
+        <v>3.258648942073855</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.626775704348228</v>
+        <v>3.638318502843771</v>
       </c>
       <c r="C15">
-        <v>3.600398123868978</v>
+        <v>3.678544151511626</v>
       </c>
       <c r="D15">
-        <v>3.637712033064143</v>
+        <v>3.627013581153441</v>
       </c>
       <c r="E15">
-        <v>3.641556984620959</v>
+        <v>3.677212006058458</v>
       </c>
       <c r="F15">
-        <v>3.655752121483059</v>
+        <v>3.33732776700479</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.703789497974948</v>
+        <v>3.71511153624935</v>
       </c>
       <c r="C16">
-        <v>3.685278657950402</v>
+        <v>3.761895403379955</v>
       </c>
       <c r="D16">
-        <v>3.714478042595406</v>
+        <v>3.703803391189598</v>
       </c>
       <c r="E16">
-        <v>3.719241030362995</v>
+        <v>3.75791095723527</v>
       </c>
       <c r="F16">
-        <v>3.735942275141797</v>
+        <v>3.414118974359281</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.777324188373758</v>
+        <v>3.788324353340661</v>
       </c>
       <c r="C17">
-        <v>3.767351129370673</v>
+        <v>3.841925667972131</v>
       </c>
       <c r="D17">
-        <v>3.787667452514118</v>
+        <v>3.777078045849945</v>
       </c>
       <c r="E17">
-        <v>3.793404123019701</v>
+        <v>3.835060354423219</v>
       </c>
       <c r="F17">
-        <v>3.81269156072599</v>
+        <v>3.489140714575437</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.847640022800737</v>
+        <v>3.858224061900946</v>
       </c>
       <c r="C18">
-        <v>3.846784705455823</v>
+        <v>3.918864634176002</v>
       </c>
       <c r="D18">
-        <v>3.857547415224362</v>
+        <v>3.847098071561367</v>
       </c>
       <c r="E18">
-        <v>3.864307912544693</v>
+        <v>3.908909299337131</v>
       </c>
       <c r="F18">
-        <v>3.886244249167906</v>
+        <v>3.562506092205341</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.914984248841883</v>
+        <v>3.925064622021478</v>
       </c>
       <c r="C19">
-        <v>3.923740702347597</v>
+        <v>3.992929986735728</v>
       </c>
       <c r="D19">
-        <v>3.924371892542625</v>
+        <v>3.914111196788336</v>
       </c>
       <c r="E19">
-        <v>3.932200972169454</v>
+        <v>3.979694671430747</v>
       </c>
       <c r="F19">
-        <v>3.956832489724399</v>
+        <v>3.634323319029383</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.979591770070279</v>
+        <v>3.989087491182344</v>
       </c>
       <c r="C20">
-        <v>3.998372883770407</v>
+        <v>4.064328005410955</v>
       </c>
       <c r="D20">
-        <v>3.988382345586547</v>
+        <v>3.978352931706764</v>
       </c>
       <c r="E20">
-        <v>3.99731943916954</v>
+        <v>4.047641707308975</v>
       </c>
       <c r="F20">
-        <v>4.02467678691236</v>
+        <v>3.704695879781009</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.041685636319813</v>
+        <v>4.050522265010736</v>
       </c>
       <c r="C21">
-        <v>4.070827747773661</v>
+        <v>4.133254173245218</v>
       </c>
       <c r="D21">
-        <v>4.049808352888031</v>
+        <v>4.040047122543318</v>
       </c>
       <c r="E21">
-        <v>4.059887577640036</v>
+        <v>4.11296454355642</v>
       </c>
       <c r="F21">
-        <v>4.089986798716378</v>
+        <v>3.773722624022834</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.101477874695407</v>
+        <v>4.109587241205337</v>
       </c>
       <c r="C22">
-        <v>4.141244875761495</v>
+        <v>4.199893703129881</v>
       </c>
       <c r="D22">
-        <v>4.108868179074038</v>
+        <v>4.09940652200934</v>
       </c>
       <c r="E22">
-        <v>4.120118410158971</v>
+        <v>4.175866753787782</v>
       </c>
       <c r="F22">
-        <v>4.15296159250428</v>
+        <v>3.841497930973747</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.159169706030716</v>
+        <v>4.166489983600774</v>
       </c>
       <c r="C23">
-        <v>4.20975727002251</v>
+        <v>4.264422054129147</v>
       </c>
       <c r="D23">
-        <v>4.165769311237533</v>
+        <v>4.156633340760941</v>
       </c>
       <c r="E23">
-        <v>4.178214268618168</v>
+        <v>4.236541873773537</v>
       </c>
       <c r="F23">
-        <v>4.213790354559164</v>
+        <v>3.908111863685544</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.214952310420907</v>
+        <v>4.221427817914873</v>
       </c>
       <c r="C24">
-        <v>4.276491659376107</v>
+        <v>4.327005370931674</v>
       </c>
       <c r="D24">
-        <v>4.220708986965856</v>
+        <v>4.211919790144925</v>
       </c>
       <c r="E24">
-        <v>4.234367303487811</v>
+        <v>4.295173898740332</v>
       </c>
       <c r="F24">
-        <v>4.272652785279358</v>
+        <v>3.973650267792704</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.269007221629193</v>
+        <v>4.274588332295662</v>
       </c>
       <c r="C25">
-        <v>4.341568788469456</v>
+        <v>4.387800944341095</v>
       </c>
       <c r="D25">
-        <v>4.273874687101526</v>
+        <v>4.265448527693793</v>
       </c>
       <c r="E25">
-        <v>4.288759999472552</v>
+        <v>4.351937747809468</v>
       </c>
       <c r="F25">
-        <v>4.329719529013531</v>
+        <v>4.03819493380666</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>4.321506814331384</v>
+        <v>4.326149857720812</v>
       </c>
       <c r="C26">
-        <v>4.405103655612757</v>
+        <v>4.446957670880973</v>
       </c>
       <c r="D26">
-        <v>4.325444632115972</v>
+        <v>4.317393208007436</v>
       </c>
       <c r="E26">
-        <v>4.341565683273362</v>
+        <v>4.406999702166583</v>
       </c>
       <c r="F26">
-        <v>4.385152724900274</v>
+        <v>4.101823687966434</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>4.372614812448592</v>
+        <v>4.376281924330524</v>
       </c>
       <c r="C27">
-        <v>4.46720586402125</v>
+        <v>4.504616364090331</v>
       </c>
       <c r="D27">
-        <v>4.375588227208088</v>
+        <v>4.367918821015532</v>
       </c>
       <c r="E27">
-        <v>4.392948927584537</v>
+        <v>4.460517824267895</v>
       </c>
       <c r="F27">
-        <v>4.439106329050618</v>
+        <v>4.164610486519497</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>4.422486660155581</v>
+        <v>4.4251456937703</v>
       </c>
       <c r="C28">
-        <v>4.527979731460396</v>
+        <v>4.560910201027379</v>
       </c>
       <c r="D28">
-        <v>4.424466493732512</v>
+        <v>4.417182138870666</v>
       </c>
       <c r="E28">
-        <v>4.443065996763786</v>
+        <v>4.512642359794087</v>
       </c>
       <c r="F28">
-        <v>4.491726575651079</v>
+        <v>4.22662553020901</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>4.471269926572326</v>
+        <v>4.472894353427172</v>
       </c>
       <c r="C29">
-        <v>4.587524649685217</v>
+        <v>4.615965079995376</v>
       </c>
       <c r="D29">
-        <v>4.472232479488405</v>
+        <v>4.465332168562236</v>
       </c>
       <c r="E29">
-        <v>4.492065278323489</v>
+        <v>4.563516120534187</v>
       </c>
       <c r="F29">
-        <v>4.543152362092332</v>
+        <v>4.287935350035879</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>4.519104757328002</v>
+        <v>4.519673508560388</v>
       </c>
       <c r="C30">
-        <v>4.645935218792269</v>
+        <v>4.669899960533685</v>
       </c>
       <c r="D30">
-        <v>4.519031642173444</v>
+        <v>4.512510422518996</v>
       </c>
       <c r="E30">
-        <v>4.540087637887394</v>
+        <v>4.613274847248791</v>
       </c>
       <c r="F30">
-        <v>4.593515535626034</v>
+        <v>4.348602914192298</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>4.566124120947857</v>
+        <v>4.565621547568597</v>
       </c>
       <c r="C31">
-        <v>4.703301499031055</v>
+        <v>4.722827191644642</v>
       </c>
       <c r="D31">
-        <v>4.565002218720328</v>
+        <v>4.558851375062039</v>
       </c>
       <c r="E31">
-        <v>4.587266799403762</v>
+        <v>4.662047553806286</v>
       </c>
       <c r="F31">
-        <v>4.642941347400644</v>
+        <v>4.408687714481057</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>4.612454254312629</v>
+        <v>4.610869999243377</v>
       </c>
       <c r="C32">
-        <v>4.759709230854939</v>
+        <v>4.774852824362738</v>
       </c>
       <c r="D32">
-        <v>4.610275580577169</v>
+        <v>4.604482764725113</v>
       </c>
       <c r="E32">
-        <v>4.633729710116381</v>
+        <v>4.70995685463901</v>
       </c>
       <c r="F32">
-        <v>4.691548652173589</v>
+        <v>4.468245856431496</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>4.658214933264652</v>
+        <v>4.655543853873263</v>
       </c>
       <c r="C33">
-        <v>4.815240012964097</v>
+        <v>4.826076900131277</v>
       </c>
       <c r="D33">
-        <v>4.654976567495621</v>
+        <v>4.649525909372299</v>
       </c>
       <c r="E33">
-        <v>4.67959686028388</v>
+        <v>4.75711927678923</v>
       </c>
       <c r="F33">
-        <v>4.739450301954496</v>
+        <v>4.527330131553</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>4.703519780076748</v>
+        <v>4.699761886307626</v>
       </c>
       <c r="C34">
-        <v>4.86997149678591</v>
+        <v>4.876593700226358</v>
       </c>
       <c r="D34">
-        <v>4.699223806368097</v>
+        <v>4.694096070014803</v>
       </c>
       <c r="E34">
-        <v>4.724982592759519</v>
+        <v>4.803645556959019</v>
       </c>
       <c r="F34">
-        <v>4.786753414040168</v>
+        <v>4.585990088935615</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>4.748476607298723</v>
+        <v>4.743636953638415</v>
       </c>
       <c r="C35">
-        <v>4.923977584268941</v>
+        <v>4.926492021376269</v>
       </c>
       <c r="D35">
-        <v>4.743130013795673</v>
+        <v>4.738302673569392</v>
       </c>
       <c r="E35">
-        <v>4.76999541472849</v>
+        <v>4.849640924180433</v>
       </c>
       <c r="F35">
-        <v>4.833559624410061</v>
+        <v>4.644272105034272</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>4.793187621389793</v>
+        <v>4.787276287341628</v>
       </c>
       <c r="C36">
-        <v>4.977328557735408</v>
+        <v>4.975855427905628</v>
       </c>
       <c r="D36">
-        <v>4.78680227789107</v>
+        <v>4.782249625472658</v>
       </c>
       <c r="E36">
-        <v>4.81473828176388</v>
+        <v>4.895205367521426</v>
       </c>
       <c r="F36">
-        <v>4.879965416961179</v>
+        <v>4.702219445711823</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>4.83774971893068</v>
+        <v>4.830781753656697</v>
       </c>
       <c r="C37">
-        <v>5.030091280139325</v>
+        <v>5.024762470863333</v>
       </c>
       <c r="D37">
-        <v>4.830342333128433</v>
+        <v>4.82603558479888</v>
       </c>
       <c r="E37">
-        <v>4.859308852032485</v>
+        <v>4.940433891081049</v>
       </c>
       <c r="F37">
-        <v>4.926062303496656</v>
+        <v>4.759872322248737</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>4.882254731474595</v>
+        <v>4.874250114661374</v>
       </c>
       <c r="C38">
-        <v>5.082329322841256</v>
+        <v>5.073286900175828</v>
       </c>
       <c r="D38">
-        <v>4.873846819354675</v>
+        <v>4.869754166914558</v>
       </c>
       <c r="E38">
-        <v>4.903799748977568</v>
+        <v>4.985416756980589</v>
       </c>
       <c r="F38">
-        <v>4.971937110206538</v>
+        <v>4.817267945576551</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>4.926789598138805</v>
+        <v>4.917773267706893</v>
       </c>
       <c r="C39">
-        <v>5.13410311686088</v>
+        <v>5.121497879210946</v>
       </c>
       <c r="D39">
-        <v>4.917407524204177</v>
+        <v>4.913494233022937</v>
       </c>
       <c r="E39">
-        <v>4.948298817480492</v>
+        <v>5.030239716299503</v>
       </c>
       <c r="F39">
-        <v>5.017672193407021</v>
+        <v>4.874440576230141</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>4.971436634901872</v>
+        <v>4.961438482019343</v>
       </c>
       <c r="C40">
-        <v>5.185470111444773</v>
+        <v>5.169460161383551</v>
       </c>
       <c r="D40">
-        <v>4.961111619376608</v>
+        <v>4.957340080753672</v>
       </c>
       <c r="E40">
-        <v>4.992889326065018</v>
+        <v>5.074984228145188</v>
       </c>
       <c r="F40">
-        <v>5.063345622753887</v>
+        <v>4.931421563853146</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5.016273670016592</v>
+        <v>5.005328612820179</v>
       </c>
       <c r="C41">
-        <v>5.23648488412294</v>
+        <v>5.217234257858258</v>
       </c>
       <c r="D41">
-        <v>5.00504187594962</v>
+        <v>5.001371653420929</v>
       </c>
       <c r="E41">
-        <v>5.037650192309211</v>
+        <v>5.119727667706501</v>
       </c>
       <c r="F41">
-        <v>5.109031443570385</v>
+        <v>4.988239382740679</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5.061374215008929</v>
+        <v>5.049522307868901</v>
       </c>
       <c r="C42">
-        <v>5.287199278928323</v>
+        <v>5.264876606351591</v>
       </c>
       <c r="D42">
-        <v>5.049276875170744</v>
+        <v>5.045664777748717</v>
       </c>
       <c r="E42">
-        <v>5.082656197714745</v>
+        <v>5.164543523978164</v>
       </c>
       <c r="F42">
-        <v>5.154799804607122</v>
+        <v>5.044919662830619</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>5.106807667289122</v>
+        <v>5.094094202187032</v>
       </c>
       <c r="C43">
-        <v>5.337662533792058</v>
+        <v>5.312439729108638</v>
       </c>
       <c r="D43">
-        <v>5.093891204413802</v>
+        <v>5.090291299129587</v>
       </c>
       <c r="E43">
-        <v>5.127978158207232</v>
+        <v>5.209501587493312</v>
       </c>
       <c r="F43">
-        <v>5.200717183317162</v>
+        <v>5.101485218845101</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5.152639355232518</v>
+        <v>5.139115102333204</v>
       </c>
       <c r="C44">
-        <v>5.387921370860713</v>
+        <v>5.359972353521323</v>
       </c>
       <c r="D44">
-        <v>5.13895564108135</v>
+        <v>5.13531929095099</v>
       </c>
       <c r="E44">
-        <v>5.17368310742924</v>
+        <v>5.254668128253244</v>
       </c>
       <c r="F44">
-        <v>5.246846547228904</v>
+        <v>5.157956063531817</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5.198930706359563</v>
+        <v>5.184652158237905</v>
       </c>
       <c r="C45">
-        <v>5.438020127426762</v>
+        <v>5.407519540174925</v>
       </c>
       <c r="D45">
-        <v>5.184537329856147</v>
+        <v>5.180813218209202</v>
       </c>
       <c r="E45">
-        <v>5.219834472933285</v>
+        <v>5.300106064078661</v>
       </c>
       <c r="F45">
-        <v>5.293247491361007</v>
+        <v>5.214349423044989</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>5.245739308628641</v>
+        <v>5.230769019389247</v>
       </c>
       <c r="C46">
-        <v>5.488000839342843</v>
+        <v>5.455122802508241</v>
       </c>
       <c r="D46">
-        <v>5.230699940764077</v>
+        <v>5.226834063732766</v>
       </c>
       <c r="E46">
-        <v>5.266492217933761</v>
+        <v>5.345875119575252</v>
       </c>
       <c r="F46">
-        <v>5.339976445128491</v>
+        <v>5.270679744345647</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>5.293118921951129</v>
+        <v>5.277525986698077</v>
       </c>
       <c r="C47">
-        <v>5.537903332371547</v>
+        <v>5.502820190829119</v>
       </c>
       <c r="D47">
-        <v>5.277503822767262</v>
+        <v>5.273439509503469</v>
       </c>
       <c r="E47">
-        <v>5.31371298036536</v>
+        <v>5.392031975841138</v>
       </c>
       <c r="F47">
-        <v>5.387086747505754</v>
+        <v>5.326958696469253</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>5.341119610139046</v>
+        <v>5.324980147598074</v>
       </c>
       <c r="C48">
-        <v>5.58776532698273</v>
+        <v>5.550646376505258</v>
       </c>
       <c r="D48">
-        <v>5.325006143876451</v>
+        <v>5.320684036316724</v>
       </c>
       <c r="E48">
-        <v>5.36155020832075</v>
+        <v>5.438630410717972</v>
       </c>
       <c r="F48">
-        <v>5.43462880939948</v>
+        <v>5.383195160547022</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>5.389787590591706</v>
+        <v>5.373185507094791</v>
       </c>
       <c r="C49">
-        <v>5.637622491133358</v>
+        <v>5.598632724997899</v>
       </c>
       <c r="D49">
-        <v>5.373261018188149</v>
+        <v>5.368619058685995</v>
       </c>
       <c r="E49">
-        <v>5.410054271093638</v>
+        <v>5.485721430096614</v>
       </c>
       <c r="F49">
-        <v>5.482650232258287</v>
+        <v>5.43939521608229</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5.439165240689531</v>
+        <v>5.42219309019995</v>
       </c>
       <c r="C50">
-        <v>5.68750853392401</v>
+        <v>5.646807354122047</v>
       </c>
       <c r="D50">
-        <v>5.422319624264374</v>
+        <v>5.417293012431691</v>
       </c>
       <c r="E50">
-        <v>5.459272546125832</v>
+        <v>5.533353384350784</v>
       </c>
       <c r="F50">
-        <v>5.531195923082608</v>
+        <v>5.495562123763464</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5.489290998304358</v>
+        <v>5.472051042315085</v>
       </c>
       <c r="C51">
-        <v>5.73745523787202</v>
+        <v>5.695195159446118</v>
       </c>
       <c r="D51">
-        <v>5.472230306115669</v>
+        <v>5.46675144941567</v>
       </c>
       <c r="E51">
-        <v>5.509249502164497</v>
+        <v>5.581572076699165</v>
       </c>
       <c r="F51">
-        <v>5.580308194173318</v>
+        <v>5.551696291125863</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5.540199215531311</v>
+        <v>5.522804706798787</v>
       </c>
       <c r="C52">
-        <v>5.78749251730789</v>
+        <v>5.743817838101798</v>
       </c>
       <c r="D52">
-        <v>5.523038653672381</v>
+        <v>5.517037122750279</v>
       </c>
       <c r="E52">
-        <v>5.560026774037486</v>
+        <v>5.63042085698046</v>
       </c>
       <c r="F52">
-        <v>5.630026842884845</v>
+        <v>5.6077952355088</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5.591919951959332</v>
+        <v>5.574496700607193</v>
       </c>
       <c r="C53">
-        <v>5.837648455907191</v>
+        <v>5.792693905439401</v>
       </c>
       <c r="D53">
-        <v>5.574787570689049</v>
+        <v>5.568190041023271</v>
       </c>
       <c r="E53">
-        <v>5.611643171338464</v>
+        <v>5.679940694529962</v>
       </c>
       <c r="F53">
-        <v>5.680389224710249</v>
+        <v>5.663853537701187</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5.644478689500412</v>
+        <v>5.627166925627751</v>
       </c>
       <c r="C54">
-        <v>5.887949321647114</v>
+        <v>5.841838656698911</v>
       </c>
       <c r="D54">
-        <v>5.627517323998427</v>
+        <v>5.620247500499366</v>
       </c>
       <c r="E54">
-        <v>5.664134688067964</v>
+        <v>5.730170228002958</v>
       </c>
       <c r="F54">
-        <v>5.731430311490146</v>
+        <v>5.719862793964782</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>5.697895968005442</v>
+        <v>5.680852589930244</v>
       </c>
       <c r="C55">
-        <v>5.938419561205187</v>
+        <v>5.891264128282285</v>
       </c>
       <c r="D55">
-        <v>5.68126556187841</v>
+        <v>5.673244094299612</v>
       </c>
       <c r="E55">
-        <v>5.717534522869393</v>
+        <v>5.781145783873888</v>
       </c>
       <c r="F55">
-        <v>5.783182729747819</v>
+        <v>5.775811543130733</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>5.75218694876775</v>
+        <v>5.735588179963743</v>
       </c>
       <c r="C56">
-        <v>5.98908176273862</v>
+        <v>5.940979057229385</v>
       </c>
       <c r="D56">
-        <v>5.736067295158375</v>
+        <v>5.727211692260554</v>
       </c>
       <c r="E56">
-        <v>5.771872930227564</v>
+        <v>5.832901352020941</v>
       </c>
       <c r="F56">
-        <v>5.835676786359565</v>
+        <v>5.831685197700973</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5.80736087717389</v>
+        <v>5.791405384526986</v>
       </c>
       <c r="C57">
-        <v>6.039956584258353</v>
+        <v>5.990988739593761</v>
       </c>
       <c r="D57">
-        <v>5.791954835276857</v>
+        <v>5.782179381395888</v>
       </c>
       <c r="E57">
-        <v>5.827177120486741</v>
+        <v>5.885468498198987</v>
       </c>
       <c r="F57">
-        <v>5.88894043773981</v>
+        <v>5.887465965292364</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5.863420437094692</v>
+        <v>5.848332958251221</v>
       </c>
       <c r="C58">
-        <v>6.0910626441111</v>
+        <v>6.041294920797098</v>
       </c>
       <c r="D58">
-        <v>5.84895767052453</v>
+        <v>5.83817337621718</v>
       </c>
       <c r="E58">
-        <v>5.883471061107524</v>
+        <v>5.938876198941947</v>
       </c>
       <c r="F58">
-        <v>5.942999248014114</v>
+        <v>5.94313275892898</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>5.920360988597488</v>
+        <v>5.906396494813494</v>
       </c>
       <c r="C59">
-        <v>6.142416347446908</v>
+        <v>6.091895633742108</v>
       </c>
       <c r="D59">
-        <v>5.907102258416059</v>
+        <v>5.895216813448638</v>
       </c>
       <c r="E59">
-        <v>5.940775182156534</v>
+        <v>5.993150562471283</v>
       </c>
       <c r="F59">
-        <v>5.997876294253067</v>
+        <v>5.99866109622202</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>5.97816968264957</v>
+        <v>5.965618085765151</v>
       </c>
       <c r="C60">
-        <v>6.194031632210673</v>
+        <v>6.142784985903197</v>
       </c>
       <c r="D60">
-        <v>5.966411704488291</v>
+        <v>5.953329507187079</v>
       </c>
       <c r="E60">
-        <v>5.999105958545943</v>
+        <v>6.048314403548533</v>
       </c>
       <c r="F60">
-        <v>6.053592002282748</v>
+        <v>6.05402299974448</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6.036824472415076</v>
+        <v>6.026015830177174</v>
       </c>
       <c r="C61">
-        <v>6.245919604179233</v>
+        <v>6.193952891106993</v>
       </c>
       <c r="D61">
-        <v>6.026905266618979</v>
+        <v>6.012527578486195</v>
       </c>
       <c r="E61">
-        <v>6.058475321945801</v>
+        <v>6.104386620478394</v>
       </c>
       <c r="F61">
-        <v>6.110163890919202</v>
+        <v>6.109186894696288</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6.096292972298505</v>
+        <v>6.087603061632147</v>
       </c>
       <c r="C62">
-        <v>6.298088054379031</v>
+        <v>6.24538474426627</v>
       </c>
       <c r="D62">
-        <v>6.088597587684336</v>
+        <v>6.072822917073927</v>
       </c>
       <c r="E62">
-        <v>6.11888980308887</v>
+        <v>6.161381315922698</v>
       </c>
       <c r="F62">
-        <v>6.167606192184968</v>
+        <v>6.164117496153326</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6.156531247800451</v>
+        <v>6.15038730676793</v>
       </c>
       <c r="C63">
-        <v>6.350540806040849</v>
+        <v>6.297061030433904</v>
       </c>
       <c r="D63">
-        <v>6.151497631313431</v>
+        <v>6.134222414757999</v>
       </c>
       <c r="E63">
-        <v>6.180349465900005</v>
+        <v>6.219306597135925</v>
       </c>
       <c r="F63">
-        <v>6.225929293486659</v>
+        <v>6.218775709949659</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6.21748253096165</v>
+        <v>6.214368775293353</v>
       </c>
       <c r="C64">
-        <v>6.403276836683878</v>
+        <v>6.348956855212498</v>
       </c>
       <c r="D64">
-        <v>6.215607073707479</v>
+        <v>6.196726889149096</v>
       </c>
       <c r="E64">
-        <v>6.24284642951892</v>
+        <v>6.278162960256337</v>
       </c>
       <c r="F64">
-        <v>6.285138944893371</v>
+        <v>6.273118539007788</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6.279075897470314</v>
+        <v>6.279538163597249</v>
       </c>
       <c r="C65">
-        <v>6.456289144969404</v>
+        <v>6.401041384362443</v>
       </c>
       <c r="D65">
-        <v>6.280917934394714</v>
+        <v>6.260329590193066</v>
       </c>
       <c r="E65">
-        <v>6.306362852094132</v>
+        <v>6.337941178658074</v>
       </c>
       <c r="F65">
-        <v>6.345235018191144</v>
+        <v>6.327099013617356</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6.341224988359032</v>
+        <v>6.345873611916129</v>
       </c>
       <c r="C66">
-        <v>6.509563316071352</v>
+        <v>6.453277183576437</v>
       </c>
       <c r="D66">
-        <v>6.347409247767459</v>
+        <v>6.325013961904464</v>
       </c>
       <c r="E66">
-        <v>6.370868275990905</v>
+        <v>6.398619604321398</v>
       </c>
       <c r="F66">
-        <v>6.406209824996533</v>
+        <v>6.380666152010533</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6.403826938129288</v>
+        <v>6.413336416256151</v>
       </c>
       <c r="C67">
-        <v>6.563075723783387</v>
+        <v>6.50561946231414</v>
       </c>
       <c r="D67">
-        <v>6.415042341951724</v>
+        <v>6.390750649510292</v>
       </c>
       <c r="E67">
-        <v>6.436316211451629</v>
+        <v>6.460160815671977</v>
       </c>
       <c r="F67">
-        <v>6.468045623941146</v>
+        <v>6.433764964026713</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6.466761508153286</v>
+        <v>6.481865296436574</v>
       </c>
       <c r="C68">
-        <v>6.616791350146801</v>
+        <v>6.558015189290365</v>
       </c>
       <c r="D68">
-        <v>6.483754458027819</v>
+        <v>6.457493205571885</v>
       </c>
       <c r="E68">
-        <v>6.502639738823078</v>
+        <v>6.522507599268494</v>
       </c>
       <c r="F68">
-        <v>6.530711059514061</v>
+        <v>6.486336516435902</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6.529890593848297</v>
+        <v>6.551368865517198</v>
       </c>
       <c r="C69">
-        <v>6.670661263022987</v>
+        <v>6.610402117182726</v>
       </c>
       <c r="D69">
-        <v>6.553450514023636</v>
+        <v>6.525172169639386</v>
       </c>
       <c r="E69">
-        <v>6.56974609551188</v>
+        <v>6.585578417776171</v>
       </c>
       <c r="F69">
-        <v>6.594156217155985</v>
+        <v>6.538318081531113</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6.593058301224892</v>
+        <v>6.621716266881609</v>
       </c>
       <c r="C70">
-        <v>6.724619787097705</v>
+        <v>6.662707803814072</v>
       </c>
       <c r="D70">
-        <v>6.623993207075366</v>
+        <v>6.593687211394853</v>
       </c>
       <c r="E70">
-        <v>6.637510399355206</v>
+        <v>6.649262460216153</v>
       </c>
       <c r="F70">
-        <v>6.658305944298403</v>
+        <v>6.589643391822193</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6.656091708997306</v>
+        <v>6.692726867302507</v>
       </c>
       <c r="C71">
-        <v>6.778581573317816</v>
+        <v>6.71484860853411</v>
       </c>
       <c r="D71">
-        <v>6.695192330469491</v>
+        <v>6.662897197227607</v>
       </c>
       <c r="E71">
-        <v>6.705768718107058</v>
+        <v>6.713414816345429</v>
       </c>
       <c r="F71">
-        <v>6.72305131281024</v>
+        <v>6.640243022682808</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6.7188024299817</v>
+        <v>6.764160130106385</v>
       </c>
       <c r="C72">
-        <v>6.832438842805259</v>
+        <v>6.766728822857874</v>
       </c>
       <c r="D72">
-        <v>6.766795103563748</v>
+        <v>6.732608744296084</v>
       </c>
       <c r="E72">
-        <v>6.774311560821468</v>
+        <v>6.777852610821378</v>
       </c>
       <c r="F72">
-        <v>6.788239724777553</v>
+        <v>6.690044922042212</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6.780988990964323</v>
+        <v>6.835708427758407</v>
       </c>
       <c r="C73">
-        <v>6.886059314770045</v>
+        <v>6.818240152694807</v>
       </c>
       <c r="D73">
-        <v>6.838480359116504</v>
+        <v>6.802565203408971</v>
       </c>
       <c r="E73">
-        <v>6.842879137561305</v>
+        <v>6.842352910040296</v>
       </c>
       <c r="F73">
-        <v>6.853664896280597</v>
+        <v>6.738975100083758</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6.842440103697958</v>
+        <v>6.906996253297453</v>
       </c>
       <c r="C74">
-        <v>6.93928530685996</v>
+        <v>6.869261720333188</v>
       </c>
       <c r="D74">
-        <v>6.909859982267789</v>
+        <v>6.872439235234957</v>
       </c>
       <c r="E74">
-        <v>6.911160153558844</v>
+        <v>6.906653395633194</v>
       </c>
       <c r="F74">
-        <v>6.919059129836389</v>
+        <v>6.786958476476164</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6.902938685132415</v>
+        <v>6.977589084777619</v>
       </c>
       <c r="C75">
-        <v>6.991934591092978</v>
+        <v>6.919660845242753</v>
       </c>
       <c r="D75">
-        <v>6.98049037877209</v>
+        <v>6.941833499029852</v>
       </c>
       <c r="E75">
-        <v>6.978796359031289</v>
+        <v>6.970456811056728</v>
       </c>
       <c r="F75">
-        <v>6.984091314713276</v>
+        <v>6.833919877814239</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6.9622664409797</v>
+        <v>7.047013332568264</v>
       </c>
       <c r="C76">
-        <v>7.04380354025229</v>
+        <v>6.969294787780107</v>
       </c>
       <c r="D76">
-        <v>7.049894484892661</v>
+        <v>7.010293416053203</v>
       </c>
       <c r="E76">
-        <v>7.04539406261374</v>
+        <v>7.03343946064778</v>
       </c>
       <c r="F76">
-        <v>7.048373963060144</v>
+        <v>6.87978518435212</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>7.020208747263892</v>
+        <v>7.114785304214866</v>
       </c>
       <c r="C77">
-        <v>7.094672716423304</v>
+        <v>7.018013534556683</v>
       </c>
       <c r="D77">
-        <v>7.11759143554295</v>
+        <v>7.077332797197972</v>
       </c>
       <c r="E77">
-        <v>7.110542377064617</v>
+        <v>7.095263335542902</v>
       </c>
       <c r="F77">
-        <v>7.111480962502661</v>
+        <v>6.92448245745053</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7.076559549578733</v>
+        <v>7.18044367634667</v>
       </c>
       <c r="C78">
-        <v>7.144314621379768</v>
+        <v>7.06566344412045</v>
       </c>
       <c r="D78">
-        <v>7.183128096787567</v>
+        <v>7.142468399726225</v>
       </c>
       <c r="E78">
-        <v>7.173835900592853</v>
+        <v>7.155590646870269</v>
       </c>
       <c r="F78">
-        <v>7.172974299578942</v>
+        <v>6.967943107407813</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7.13112583282237</v>
+        <v>7.243578516198085</v>
       </c>
       <c r="C79">
-        <v>7.192502905347399</v>
+        <v>7.112091447045827</v>
       </c>
       <c r="D79">
-        <v>7.246105966299777</v>
+        <v>7.20525541530999</v>
       </c>
       <c r="E79">
-        <v>7.234897832647283</v>
+        <v>7.214098764472928</v>
       </c>
       <c r="F79">
-        <v>7.232434592882582</v>
+        <v>7.010102997318951</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>7.183731568880312</v>
+        <v>7.303851358247418</v>
       </c>
       <c r="C80">
-        <v>7.23902185483913</v>
+        <v>7.157149347694985</v>
       </c>
       <c r="D80">
-        <v>7.306198847459818</v>
+        <v>7.265315622459116</v>
       </c>
       <c r="E80">
-        <v>7.293399313545484</v>
+        <v>7.270493609294423</v>
       </c>
       <c r="F80">
-        <v>7.289488669437226</v>
+        <v>7.0509033916115</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>7.234220833206718</v>
+        <v>7.361004242902501</v>
       </c>
       <c r="C81">
-        <v>7.28367499065636</v>
+        <v>7.200697782812934</v>
       </c>
       <c r="D81">
-        <v>7.363159999966147</v>
+        <v>7.322353249659248</v>
       </c>
       <c r="E81">
-        <v>7.349072233825527</v>
+        <v>7.32451988055725</v>
       </c>
       <c r="F81">
-        <v>7.343828802392069</v>
+        <v>7.090291707556812</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>7.282459893855555</v>
+        <v>7.414858912366452</v>
       </c>
       <c r="C82">
-        <v>7.326291776278939</v>
+        <v>7.242609500484637</v>
       </c>
       <c r="D82">
-        <v>7.41682023719702</v>
+        <v>7.376158301956449</v>
       </c>
       <c r="E82">
-        <v>7.401714417108712</v>
+        <v>7.37596729243228</v>
       </c>
       <c r="F82">
-        <v>7.395221468754274</v>
+        <v>7.128222057161818</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7.328338389053235</v>
+        <v>7.465309198159452</v>
       </c>
       <c r="C83">
-        <v>7.366731880381574</v>
+        <v>7.282771770888477</v>
       </c>
       <c r="D83">
-        <v>7.467080010711535</v>
+        <v>7.426600381395178</v>
       </c>
       <c r="E83">
-        <v>7.451188219900833</v>
+        <v>7.424672858426887</v>
       </c>
       <c r="F83">
-        <v>7.443506720485384</v>
+        <v>7.164655565985854</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7.371769565210446</v>
+        <v>7.512309897677603</v>
       </c>
       <c r="C84">
-        <v>7.404886913795802</v>
+        <v>7.321087889744256</v>
       </c>
       <c r="D84">
-        <v>7.513898480475486</v>
+        <v>7.473617210057364</v>
       </c>
       <c r="E84">
-        <v>7.497414477088998</v>
+        <v>7.470519788368509</v>
       </c>
       <c r="F84">
-        <v>7.488591119135219</v>
+        <v>7.199560463544458</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>7.412689696989846</v>
+        <v>7.555864741249359</v>
       </c>
       <c r="C85">
-        <v>7.440679970119353</v>
+        <v>7.357477849605916</v>
       </c>
       <c r="D85">
-        <v>7.557281907912233</v>
+        <v>7.517201316700601</v>
       </c>
       <c r="E85">
-        <v>7.540363954979777</v>
+        <v>7.513433989731476</v>
       </c>
       <c r="F85">
-        <v>7.530437344706027</v>
+        <v>7.232912001166512</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7.451056886919525</v>
+        <v>7.596015088548129</v>
       </c>
       <c r="C86">
-        <v>7.474063516852384</v>
+        <v>7.391878309073593</v>
       </c>
       <c r="D86">
-        <v>7.597272842315798</v>
+        <v>7.557387274378413</v>
       </c>
       <c r="E86">
-        <v>7.580048055582216</v>
+        <v>7.55337910756282</v>
       </c>
       <c r="F86">
-        <v>7.569052990232891</v>
+        <v>7.264692203940984</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7.486849391799153</v>
+        <v>7.632830171968735</v>
       </c>
       <c r="C87">
-        <v>7.505016244871792</v>
+        <v>7.424242012285922</v>
       </c>
       <c r="D87">
-        <v>7.633940772724833</v>
+        <v>7.594240579116643</v>
       </c>
       <c r="E87">
-        <v>7.616509933636928</v>
+        <v>7.590350926555764</v>
       </c>
       <c r="F87">
-        <v>7.604480067626801</v>
+        <v>7.29488951054079</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7.520063648511027</v>
+        <v>7.666399057553001</v>
       </c>
       <c r="C88">
-        <v>7.533539395004999</v>
+        <v>7.454536827420021</v>
       </c>
       <c r="D88">
-        <v>7.667374463112357</v>
+        <v>7.627848559783873</v>
       </c>
       <c r="E88">
-        <v>7.649816637951763</v>
+        <v>7.62437174908666</v>
       </c>
       <c r="F88">
-        <v>7.636785961851427</v>
+        <v>7.323498330322958</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7.55071214590139</v>
+        <v>7.696824236369188</v>
       </c>
       <c r="C89">
-        <v>7.559652985955277</v>
+        <v>7.48274453092475</v>
       </c>
       <c r="D89">
-        <v>7.697675747568328</v>
+        <v>7.658313198134108</v>
       </c>
       <c r="E89">
-        <v>7.68005251166791</v>
+        <v>7.655485151967278</v>
       </c>
       <c r="F89">
-        <v>7.666055997698979</v>
+        <v>7.350518556327895</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7.578821258124565</v>
+        <v>7.724216807443315</v>
       </c>
       <c r="C90">
-        <v>7.583392248022243</v>
+        <v>7.508859453417062</v>
       </c>
       <c r="D90">
-        <v>7.724954905960825</v>
+        <v>7.685745864644947</v>
       </c>
       <c r="E90">
-        <v>7.707313891433347</v>
+        <v>7.683751273594471</v>
       </c>
       <c r="F90">
-        <v>7.692387602099897</v>
+        <v>7.375955042689106</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7.604429135084443</v>
+        <v>7.748692895134074</v>
       </c>
       <c r="C91">
-        <v>7.604804357350631</v>
+        <v>7.532887072790694</v>
       </c>
       <c r="D91">
-        <v>7.749327127475537</v>
+        <v>7.710263246030223</v>
       </c>
       <c r="E91">
-        <v>7.731704915625487</v>
+        <v>7.709242803906632</v>
       </c>
       <c r="F91">
-        <v>7.715885901027147</v>
+        <v>7.399817080975266</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7.627583708436315</v>
+        <v>7.770370800640535</v>
       </c>
       <c r="C92">
-        <v>7.623945624578709</v>
+        <v>7.554842618492782</v>
       </c>
       <c r="D92">
-        <v>7.770909854686358</v>
+        <v>7.731984341659392</v>
       </c>
       <c r="E92">
-        <v>7.753334300033774</v>
+        <v>7.732041563478279</v>
       </c>
       <c r="F92">
-        <v>7.736660368581148</v>
+        <v>7.422117893829075</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>7.64834085894902</v>
+        <v>7.789369002840598</v>
       </c>
       <c r="C93">
-        <v>7.640879094290364</v>
+        <v>7.574749730887464</v>
       </c>
       <c r="D93">
-        <v>7.789820748686323</v>
+        <v>7.751028372468738</v>
       </c>
       <c r="E93">
-        <v>7.772312902620674</v>
+        <v>7.752235669466496</v>
       </c>
       <c r="F93">
-        <v>7.754822258471338</v>
+        <v>7.442874147100937</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>7.666762772659155</v>
+        <v>7.805804753303126</v>
       </c>
       <c r="C94">
-        <v>7.655672513523787</v>
+        <v>7.592639201345229</v>
       </c>
       <c r="D94">
-        <v>7.80617627168243</v>
+        <v>7.76751326317146</v>
       </c>
       <c r="E94">
-        <v>7.788751900288823</v>
+        <v>7.769917379972651</v>
       </c>
       <c r="F94">
-        <v>7.770482831783444</v>
+        <v>7.462105491128009</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7.682916466320621</v>
+        <v>7.819793036339812</v>
       </c>
       <c r="C95">
-        <v>7.668396762267547</v>
+        <v>7.608547805601909</v>
       </c>
       <c r="D95">
-        <v>7.820090708692498</v>
+        <v>7.781554580008791</v>
       </c>
       <c r="E95">
-        <v>7.80276145568938</v>
+        <v>7.785181306838682</v>
       </c>
       <c r="F95">
-        <v>7.783752048528444</v>
+        <v>7.479834134780381</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7.696872491417349</v>
+        <v>7.831445862426672</v>
       </c>
       <c r="C96">
-        <v>7.679124568716534</v>
+        <v>7.622517261636933</v>
       </c>
       <c r="D96">
-        <v>7.831675448742336</v>
+        <v>7.793264794919582</v>
       </c>
       <c r="E96">
-        <v>7.814449754446247</v>
+        <v>7.798122953234364</v>
       </c>
       <c r="F96">
-        <v>7.794737640015654</v>
+        <v>7.496084459503206</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7.708703854783945</v>
+        <v>7.84087179808866</v>
       </c>
       <c r="C97">
-        <v>7.687929451048042</v>
+        <v>7.634593288351375</v>
       </c>
       <c r="D97">
-        <v>7.84103849629041</v>
+        <v>7.802752840775313</v>
       </c>
       <c r="E97">
-        <v>7.823922323970233</v>
+        <v>7.808837603351497</v>
       </c>
       <c r="F97">
-        <v>7.80354445708364</v>
+        <v>7.510882661759632</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7.718485091412499</v>
+        <v>7.84817565170773</v>
       </c>
       <c r="C98">
-        <v>7.694884894645422</v>
+        <v>7.644824760666308</v>
       </c>
       <c r="D98">
-        <v>7.848284174818059</v>
+        <v>7.810123805459591</v>
       </c>
       <c r="E98">
-        <v>7.831281570666298</v>
+        <v>7.817419502049144</v>
       </c>
       <c r="F98">
-        <v>7.810274072823496</v>
+        <v>7.524256428212971</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7.726291469911896</v>
+        <v>7.853458313192664</v>
       </c>
       <c r="C99">
-        <v>7.700063733988119</v>
+        <v>7.653262973126591</v>
       </c>
       <c r="D99">
-        <v>7.853512934576347</v>
+        <v>7.815478767074732</v>
       </c>
       <c r="E99">
-        <v>7.836626477255495</v>
+        <v>7.823961224609468</v>
       </c>
       <c r="F99">
-        <v>7.815024511687982</v>
+        <v>7.536234653256019</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7.732198327777358</v>
+        <v>7.856816673753696</v>
       </c>
       <c r="C100">
-        <v>7.703537685453643</v>
+        <v>7.659960998997881</v>
       </c>
       <c r="D100">
-        <v>7.85682127918391</v>
+        <v>7.818914727493938</v>
       </c>
       <c r="E100">
-        <v>7.84005242070268</v>
+        <v>7.828553196664971</v>
       </c>
       <c r="F100">
-        <v>7.817890092914703</v>
+        <v>7.546847189138332</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7.736280533076609</v>
+        <v>7.858343612968443</v>
       </c>
       <c r="C101">
-        <v>7.705376986031669</v>
+        <v>7.664973131683947</v>
       </c>
       <c r="D101">
-        <v>7.858301746605415</v>
+        <v>7.820524615452989</v>
       </c>
       <c r="E101">
-        <v>7.841651062888673</v>
+        <v>7.831283353590915</v>
       </c>
       <c r="F101">
-        <v>7.818961367771559</v>
+        <v>7.556124620704263</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7.738612049143222</v>
+        <v>7.858128032904067</v>
       </c>
       <c r="C102">
-        <v>7.705650125777282</v>
+        <v>7.668354401257924</v>
       </c>
       <c r="D102">
-        <v>7.858042938757894</v>
+        <v>7.820397332095874</v>
       </c>
       <c r="E102">
-        <v>7.841510339468464</v>
+        <v>7.832236890961249</v>
       </c>
       <c r="F102">
-        <v>7.818325117281094</v>
+        <v>7.5640980587744</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7.739265581807752</v>
+        <v>7.85625493091266</v>
       </c>
       <c r="C103">
-        <v>7.704423654186533</v>
+        <v>7.670160164664307</v>
       </c>
       <c r="D103">
-        <v>7.856129586318032</v>
+        <v>7.81861782206689</v>
       </c>
       <c r="E103">
-        <v>7.83971448946517</v>
+        <v>7.831496116517624</v>
       </c>
       <c r="F103">
-        <v>7.81606439444794</v>
+        <v>7.570798966895464</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7.738312298562279</v>
+        <v>7.852805500034064</v>
       </c>
       <c r="C104">
-        <v>7.701762063209205</v>
+        <v>7.670445755908867</v>
       </c>
       <c r="D104">
-        <v>7.852642641012589</v>
+        <v>7.815267191764078</v>
       </c>
       <c r="E104">
-        <v>7.836344098040227</v>
+        <v>7.829140362225179</v>
       </c>
       <c r="F104">
-        <v>7.812258585305255</v>
+        <v>7.576259008393404</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7.735821612198623</v>
+        <v>7.847857236197733</v>
       </c>
       <c r="C105">
-        <v>7.69772770923754</v>
+        <v>7.66926619200193</v>
       </c>
       <c r="D105">
-        <v>7.847659387787657</v>
+        <v>7.810422832560064</v>
       </c>
       <c r="E105">
-        <v>7.83147617464825</v>
+        <v>7.825245938454734</v>
       </c>
       <c r="F105">
-        <v>7.806983507480039</v>
+        <v>7.580509913735248</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7.731861018884724</v>
+        <v>7.841484058215108</v>
       </c>
       <c r="C106">
-        <v>7.692380765165097</v>
+        <v>7.666675928122236</v>
       </c>
       <c r="D106">
-        <v>7.841253562664988</v>
+        <v>7.804158548087823</v>
       </c>
       <c r="E106">
-        <v>7.825184257196867</v>
+        <v>7.819886124844171</v>
       </c>
       <c r="F106">
-        <v>7.800311523867781</v>
+        <v>7.583583364440396</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7.726495980171444</v>
+        <v>7.833756448205443</v>
       </c>
       <c r="C107">
-        <v>7.685779204390658</v>
+        <v>7.662728644865282</v>
       </c>
       <c r="D107">
-        <v>7.833495473882601</v>
+        <v>7.796544676958798</v>
       </c>
       <c r="E107">
-        <v>7.817538523683052</v>
+        <v>7.813131192939421</v>
       </c>
       <c r="F107">
-        <v>7.792311663762653</v>
+        <v>7.585510892213822</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7.719789841113616</v>
+        <v>7.824741584642791</v>
       </c>
       <c r="C108">
-        <v>7.677978809656411</v>
+        <v>7.657477069776135</v>
       </c>
       <c r="D108">
-        <v>7.824452142637075</v>
+        <v>7.787648241938838</v>
       </c>
       <c r="E108">
-        <v>7.808605908814862</v>
+        <v>7.805048454255753</v>
       </c>
       <c r="F108">
-        <v>7.783049733990516</v>
+        <v>7.586323792350931</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7.711803779007267</v>
+        <v>7.814503476131421</v>
       </c>
       <c r="C109">
-        <v>7.669033197250072</v>
+        <v>7.650972854215148</v>
       </c>
       <c r="D109">
-        <v>7.814187433380352</v>
+        <v>7.777533085107939</v>
       </c>
       <c r="E109">
-        <v>7.798450226230563</v>
+        <v>7.795702322524171</v>
       </c>
       <c r="F109">
-        <v>7.772588447901073</v>
+        <v>7.586053050144516</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7.702596777819511</v>
+        <v>7.803103084787106</v>
       </c>
       <c r="C110">
-        <v>7.658993854433554</v>
+        <v>7.643266476022154</v>
       </c>
       <c r="D110">
-        <v>7.802762187586798</v>
+        <v>7.766260005085854</v>
       </c>
       <c r="E110">
-        <v>7.787132290250239</v>
+        <v>7.785154389777445</v>
       </c>
       <c r="F110">
-        <v>7.760987553138774</v>
+        <v>7.584729278269134</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7.692225623164702</v>
+        <v>7.790598467046574</v>
       </c>
       <c r="C111">
-        <v>7.647910186683936</v>
+        <v>7.634407145266088</v>
       </c>
       <c r="D111">
-        <v>7.790234348476239</v>
+        <v>7.753886889677426</v>
       </c>
       <c r="E111">
-        <v>7.774710035161188</v>
+        <v>7.773463505191521</v>
       </c>
       <c r="F111">
-        <v>7.748303958309092</v>
+        <v>7.582382663842178</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7.6807449138292</v>
+        <v>7.777044899446946</v>
       </c>
       <c r="C112">
-        <v>7.635829570081798</v>
+        <v>7.624442738354927</v>
       </c>
       <c r="D112">
-        <v>7.776659086008638</v>
+        <v>7.740468848178237</v>
       </c>
       <c r="E112">
-        <v>7.761238645155723</v>
+        <v>7.760685859672387</v>
       </c>
       <c r="F112">
-        <v>7.734591855948554</v>
+        <v>7.579042924296369</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7.668207086949711</v>
+        <v>7.762495004884508</v>
       </c>
       <c r="C113">
-        <v>7.622797405364034</v>
+        <v>7.613419741421656</v>
       </c>
       <c r="D113">
-        <v>7.762088927171591</v>
+        <v>7.726058334330714</v>
       </c>
       <c r="E113">
-        <v>7.746770671230458</v>
+        <v>7.746875088768649</v>
       </c>
       <c r="F113">
-        <v>7.719902841304752</v>
+        <v>7.57473927035756</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7.654662453531834</v>
+        <v>7.746998873597019</v>
       </c>
       <c r="C114">
-        <v>7.60885718646884</v>
+        <v>7.601383222062503</v>
       </c>
       <c r="D114">
-        <v>7.746573873210664</v>
+        <v>7.710705273934342</v>
       </c>
       <c r="E114">
-        <v>7.731356152536297</v>
+        <v>7.732082363333887</v>
       </c>
       <c r="F114">
-        <v>7.704286032898287</v>
+        <v>7.569500376021619</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7.640159242559623</v>
+        <v>7.730604176931656</v>
       </c>
       <c r="C115">
-        <v>7.594050559430571</v>
+        <v>7.588376811137617</v>
       </c>
       <c r="D115">
-        <v>7.730161516395913</v>
+        <v>7.694457175699719</v>
       </c>
       <c r="E115">
-        <v>7.715042725593876</v>
+        <v>7.716356487584783</v>
       </c>
       <c r="F115">
-        <v>7.687788182594373</v>
+        <v>7.563354354436591</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7.624743652068914</v>
+        <v>7.713356286802208</v>
       </c>
       <c r="C116">
-        <v>7.578417395578901</v>
+        <v>7.574442699981495</v>
       </c>
       <c r="D116">
-        <v>7.71289715157259</v>
+        <v>7.677359249493878</v>
       </c>
       <c r="E116">
-        <v>7.697875730946112</v>
+        <v>7.699743993512569</v>
       </c>
       <c r="F116">
-        <v>7.670453783597141</v>
+        <v>7.556328738899302</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7.60845990565796</v>
+        <v>7.695298369845319</v>
       </c>
       <c r="C117">
-        <v>7.561995852114098</v>
+        <v>7.559621638427072</v>
       </c>
       <c r="D117">
-        <v>7.694823878729088</v>
+        <v>7.65945451921939</v>
       </c>
       <c r="E117">
-        <v>7.679898321761078</v>
+        <v>7.682289224187445</v>
       </c>
       <c r="F117">
-        <v>7.652325182623102</v>
+        <v>7.548450468329282</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7.591350307626995</v>
+        <v>7.676471520117747</v>
       </c>
       <c r="C118">
-        <v>7.544822430140231</v>
+        <v>7.54395294182887</v>
       </c>
       <c r="D118">
-        <v>7.675982719721158</v>
+        <v>7.64078391772984</v>
       </c>
       <c r="E118">
-        <v>7.661151567623455</v>
+        <v>7.664034437757435</v>
       </c>
       <c r="F118">
-        <v>7.633442672862453</v>
+        <v>7.539745877445124</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7.573455300223739</v>
+        <v>7.656914818809636</v>
       </c>
       <c r="C119">
-        <v>7.526932044970187</v>
+        <v>7.527474504887708</v>
       </c>
       <c r="D119">
-        <v>7.656412693658108</v>
+        <v>7.621386385996025</v>
       </c>
       <c r="E119">
-        <v>7.641674549318501</v>
+        <v>7.645019892068937</v>
       </c>
       <c r="F119">
-        <v>7.613844598796121</v>
+        <v>7.530240690135519</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7.554813539594546</v>
+        <v>7.636665468304462</v>
       </c>
       <c r="C120">
-        <v>7.508358087842367</v>
+        <v>7.510222821373531</v>
       </c>
       <c r="D120">
-        <v>7.636150951436893</v>
+        <v>7.601298977937125</v>
       </c>
       <c r="E120">
-        <v>7.621504456034935</v>
+        <v>7.625283935596815</v>
       </c>
       <c r="F120">
-        <v>7.59356744363924</v>
+        <v>7.519960012629118</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7.535461951355542</v>
+        <v>7.615758851164609</v>
       </c>
       <c r="C121">
-        <v>7.489132487734945</v>
+        <v>7.492233007305845</v>
       </c>
       <c r="D121">
-        <v>7.615232815083678</v>
+        <v>7.580556942708835</v>
       </c>
       <c r="E121">
-        <v>7.600676673520692</v>
+        <v>7.604863090841003</v>
       </c>
       <c r="F121">
-        <v>7.5726459133247</v>
+        <v>7.508928327335548</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7.515435797383918</v>
+        <v>7.594228630235198</v>
       </c>
       <c r="C122">
-        <v>7.46928577089335</v>
+        <v>7.473538831268106</v>
       </c>
       <c r="D122">
-        <v>7.593691916146457</v>
+        <v>7.559193811737094</v>
       </c>
       <c r="E122">
-        <v>7.579224868784868</v>
+        <v>7.583792136576839</v>
       </c>
       <c r="F122">
-        <v>7.551113033229054</v>
+        <v>7.49716950880991</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7.494768741697635</v>
+        <v>7.572106835851297</v>
       </c>
       <c r="C123">
-        <v>7.448847118916891</v>
+        <v>7.454172744275665</v>
       </c>
       <c r="D123">
-        <v>7.571560227443768</v>
+        <v>7.537241489633004</v>
       </c>
       <c r="E123">
-        <v>7.557181073217788</v>
+        <v>7.562104187300116</v>
       </c>
       <c r="F123">
-        <v>7.52900022035994</v>
+        <v>7.48470680631887</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7.473492902560781</v>
+        <v>7.549423929089445</v>
       </c>
       <c r="C124">
-        <v>7.427844425852954</v>
+        <v>7.434165912431077</v>
       </c>
       <c r="D124">
-        <v>7.548868179183979</v>
+        <v>7.514730322758634</v>
       </c>
       <c r="E124">
-        <v>7.534575756871565</v>
+        <v>7.539830765450493</v>
       </c>
       <c r="F124">
-        <v>7.506337360004337</v>
+        <v>7.471562869381398</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7.451638922261032</v>
+        <v>7.526208900318511</v>
       </c>
       <c r="C125">
-        <v>7.406304350324899</v>
+        <v>7.413548251231038</v>
       </c>
       <c r="D125">
-        <v>7.525644711548553</v>
+        <v>7.491689177869955</v>
       </c>
       <c r="E125">
-        <v>7.51143791072943</v>
+        <v>7.517001885558476</v>
       </c>
       <c r="F125">
-        <v>7.483152889074258</v>
+        <v>7.457759741309856</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7.429236027969773</v>
+        <v>7.502489316972422</v>
       </c>
       <c r="C126">
-        <v>7.384252367557055</v>
+        <v>7.39234846118485</v>
       </c>
       <c r="D126">
-        <v>7.501917355723207</v>
+        <v>7.468145519556908</v>
       </c>
       <c r="E126">
-        <v>7.487795114906448</v>
+        <v>7.493646106323904</v>
       </c>
       <c r="F126">
-        <v>7.459473854196268</v>
+        <v>7.443318868658593</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7.406312088027705</v>
+        <v>7.478291411492182</v>
       </c>
       <c r="C127">
-        <v>7.36171282849481</v>
+        <v>7.370594064110541</v>
       </c>
       <c r="D127">
-        <v>7.477712310825969</v>
+        <v>7.444125469724657</v>
       </c>
       <c r="E127">
-        <v>7.463673603351274</v>
+        <v>7.46979062780275</v>
       </c>
       <c r="F127">
-        <v>7.435325983936066</v>
+        <v>7.428261105951055</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7.382893672756541</v>
+        <v>7.453640134798405</v>
       </c>
       <c r="C128">
-        <v>7.338708988751486</v>
+        <v>7.348311441119481</v>
       </c>
       <c r="D128">
-        <v>7.453054484279772</v>
+        <v>7.419653875692179</v>
       </c>
       <c r="E128">
-        <v>7.439098357648697</v>
+        <v>7.445461324218408</v>
       </c>
       <c r="F128">
-        <v>7.410733757677092</v>
+        <v>7.412606726831719</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7.35900610891964</v>
+        <v>7.428559216605652</v>
       </c>
       <c r="C129">
-        <v>7.315263094099077</v>
+        <v>7.325525869512666</v>
       </c>
       <c r="D129">
-        <v>7.427967589071264</v>
+        <v>7.394754377241722</v>
       </c>
       <c r="E129">
-        <v>7.414093098623209</v>
+        <v>7.420682832040709</v>
       </c>
       <c r="F129">
-        <v>7.38572045621788</v>
+        <v>7.396375435123921</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7.334673532987731</v>
+        <v>7.403071239261828</v>
       </c>
       <c r="C130">
-        <v>7.291396368467455</v>
+        <v>7.302261558475436</v>
       </c>
       <c r="D130">
-        <v>7.402474162793292</v>
+        <v>7.369449456957545</v>
       </c>
       <c r="E130">
-        <v>7.388680449363102</v>
+        <v>7.395478591625414</v>
       </c>
       <c r="F130">
-        <v>7.360308227437376</v>
+        <v>7.379586373996153</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7.309918945322185</v>
+        <v>7.377197671519486</v>
       </c>
       <c r="C131">
-        <v>7.267129127810665</v>
+        <v>7.278541685640098</v>
       </c>
       <c r="D131">
-        <v>7.376595661589767</v>
+        <v>7.343760499855529</v>
       </c>
       <c r="E131">
-        <v>7.362881864922536</v>
+        <v>7.36987090656343</v>
       </c>
       <c r="F131">
-        <v>7.334518140025641</v>
+        <v>7.362258135066927</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7.284764259855475</v>
+        <v>7.350958944929045</v>
       </c>
       <c r="C132">
-        <v>7.242480742585167</v>
+        <v>7.254388439262358</v>
       </c>
       <c r="D132">
-        <v>7.350352478984063</v>
+        <v>7.317707850943583</v>
       </c>
       <c r="E132">
-        <v>7.336717811778664</v>
+        <v>7.343881004857117</v>
       </c>
       <c r="F132">
-        <v>7.308370231254674</v>
+        <v>7.344408772824945</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7.259230351833024</v>
+        <v>7.324374486161096</v>
       </c>
       <c r="C133">
-        <v>7.217469753082446</v>
+        <v>7.229823049594525</v>
       </c>
       <c r="D133">
-        <v>7.323764025247299</v>
+        <v>7.291310858657624</v>
       </c>
       <c r="E133">
-        <v>7.310207705763665</v>
+        <v>7.317529076589427</v>
       </c>
       <c r="F133">
-        <v>7.281883563938194</v>
+        <v>7.326055813317892</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7.233337101181998</v>
+        <v>7.297462777935669</v>
       </c>
       <c r="C134">
-        <v>7.192113842516719</v>
+        <v>7.204865826778902</v>
       </c>
       <c r="D134">
-        <v>7.296848754778362</v>
+        <v>7.264587918477432</v>
       </c>
       <c r="E134">
-        <v>7.283370055898854</v>
+        <v>7.290834339458882</v>
       </c>
       <c r="F134">
-        <v>7.255076268991155</v>
+        <v>7.307216266661889</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7.207103449955254</v>
+        <v>7.270241400982823</v>
       </c>
       <c r="C135">
-        <v>7.166429922381673</v>
+        <v>7.179536197315609</v>
       </c>
       <c r="D135">
-        <v>7.269624225387854</v>
+        <v>7.237556542493628</v>
       </c>
       <c r="E135">
-        <v>7.256222430241508</v>
+        <v>7.263815069573604</v>
       </c>
       <c r="F135">
-        <v>7.227965590398787</v>
+        <v>7.287906638832697</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7.180547428024375</v>
+        <v>7.242727072393053</v>
       </c>
       <c r="C136">
-        <v>7.140434134485857</v>
+        <v>7.153852734181821</v>
       </c>
       <c r="D136">
-        <v>7.242107137729916</v>
+        <v>7.210233375419768</v>
       </c>
       <c r="E136">
-        <v>7.228781570196398</v>
+        <v>7.236488665432608</v>
       </c>
       <c r="F136">
-        <v>7.200567933641304</v>
+        <v>7.268142942715858</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7.153686213281468</v>
+        <v>7.214935701573032</v>
       </c>
       <c r="C137">
-        <v>7.114141904217812</v>
+        <v>7.127833193302757</v>
       </c>
       <c r="D137">
-        <v>7.214313372479311</v>
+        <v>7.182634257107848</v>
       </c>
       <c r="E137">
-        <v>7.201063380363459</v>
+        <v>7.208871674730745</v>
       </c>
       <c r="F137">
-        <v>7.172898900447926</v>
+        <v>7.247940710797384</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7.126536163537518</v>
+        <v>7.186882411741858</v>
       </c>
       <c r="C138">
-        <v>7.087567965642997</v>
+        <v>7.101494540231802</v>
       </c>
       <c r="D138">
-        <v>7.186258043435047</v>
+        <v>7.154774269791846</v>
       </c>
       <c r="E138">
-        <v>7.173083005699352</v>
+        <v>7.180979849709767</v>
       </c>
       <c r="F138">
-        <v>7.14497332178584</v>
+        <v>7.227315006489742</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7.099112842400034</v>
+        <v>7.158581594455996</v>
       </c>
       <c r="C139">
-        <v>7.060726393874183</v>
+        <v>7.074852989293416</v>
       </c>
       <c r="D139">
-        <v>7.157955515247714</v>
+        <v>7.126667717711472</v>
       </c>
       <c r="E139">
-        <v>7.144854844089098</v>
+        <v>7.152828163982908</v>
       </c>
       <c r="F139">
-        <v>7.116805319785503</v>
+        <v>7.206280436142566</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7.071431088109178</v>
+        <v>7.130046933292499</v>
       </c>
       <c r="C140">
-        <v>7.033630636403857</v>
+        <v>7.047924032260066</v>
       </c>
       <c r="D140">
-        <v>7.129419462424767</v>
+        <v>7.098328263648951</v>
       </c>
       <c r="E140">
-        <v>7.11639258991423</v>
+        <v>7.124430878065215</v>
       </c>
       <c r="F140">
-        <v>7.08840831321615</v>
+        <v>7.184851160863897</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7.043504998035768</v>
+        <v>7.101291444655259</v>
       </c>
       <c r="C141">
-        <v>7.006293530395324</v>
+        <v>7.020722463297109</v>
       </c>
       <c r="D141">
-        <v>7.100662880149357</v>
+        <v>7.069768839473147</v>
       </c>
       <c r="E141">
-        <v>7.08770927646509</v>
+        <v>7.095801542855606</v>
       </c>
       <c r="F141">
-        <v>7.059795073214032</v>
+        <v>7.163040908170339</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7.01534802011379</v>
+        <v>7.072327510557314</v>
       </c>
       <c r="C142">
-        <v>6.97872734872261</v>
+        <v>6.993262416870426</v>
       </c>
       <c r="D142">
-        <v>7.071698138013933</v>
+        <v>7.041001796963963</v>
       </c>
       <c r="E142">
-        <v>7.058817280912459</v>
+        <v>7.06695306432751</v>
       </c>
       <c r="F142">
-        <v>7.030977764519831</v>
+        <v>7.140862983600403</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6.986972925427473</v>
+        <v>7.043166903181755</v>
       </c>
       <c r="C143">
-        <v>6.950943800663113</v>
+        <v>6.965557384865558</v>
       </c>
       <c r="D143">
-        <v>7.042536993028433</v>
+        <v>7.012038847679355</v>
       </c>
       <c r="E143">
-        <v>7.029728394432973</v>
+        <v>7.037897704917722</v>
       </c>
       <c r="F143">
-        <v>7.001967912391208</v>
+        <v>7.118330281502621</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6.958391893993218</v>
+        <v>7.013820825309588</v>
       </c>
       <c r="C144">
-        <v>6.922954083642809</v>
+        <v>6.937620254113653</v>
       </c>
       <c r="D144">
-        <v>7.013190633349685</v>
+        <v>6.982891146392853</v>
       </c>
       <c r="E144">
-        <v>7.000453811690994</v>
+        <v>7.008647143584763</v>
       </c>
       <c r="F144">
-        <v>6.972776539661836</v>
+        <v>7.095455298042086</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6.929616498922639</v>
+        <v>6.984299926028492</v>
       </c>
       <c r="C145">
-        <v>6.894768878340154</v>
+        <v>6.909463322131196</v>
       </c>
       <c r="D145">
-        <v>6.983669696244083</v>
+        <v>6.953569298814007</v>
       </c>
       <c r="E145">
-        <v>6.971004197443929</v>
+        <v>6.979212477029914</v>
       </c>
       <c r="F145">
-        <v>6.94341406562533</v>
+        <v>7.07225013980403</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6.900657773654179</v>
+        <v>6.954614337943675</v>
       </c>
       <c r="C146">
-        <v>6.86639839961044</v>
+        <v>6.881098330937851</v>
       </c>
       <c r="D146">
-        <v>6.953984300246838</v>
+        <v>6.924083384028607</v>
       </c>
       <c r="E146">
-        <v>6.941389682144523</v>
+        <v>6.949604274261732</v>
       </c>
       <c r="F146">
-        <v>6.913890448955575</v>
+        <v>7.048726535371336</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6.871526201112617</v>
+        <v>6.924773695664401</v>
       </c>
       <c r="C147">
-        <v>6.837852390300261</v>
+        <v>6.852536484428851</v>
       </c>
       <c r="D147">
-        <v>6.924144070098427</v>
+        <v>6.894443003879734</v>
       </c>
       <c r="E147">
-        <v>6.911619918285083</v>
+        <v>6.919832575827494</v>
       </c>
       <c r="F147">
-        <v>6.884215137635553</v>
+        <v>7.024895849670235</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6.842231770800438</v>
+        <v>6.894787162042341</v>
       </c>
       <c r="C148">
-        <v>6.809140169103923</v>
+        <v>6.823788475644325</v>
       </c>
       <c r="D148">
-        <v>6.894158155665149</v>
+        <v>6.86465727382184</v>
       </c>
       <c r="E148">
-        <v>6.881704063534484</v>
+        <v>6.889906946426977</v>
       </c>
       <c r="F148">
-        <v>6.854397113646405</v>
+        <v>7.000769086676502</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6.812783982564309</v>
+        <v>6.864663454260241</v>
       </c>
       <c r="C149">
-        <v>6.780270622588162</v>
+        <v>6.794864507915679</v>
       </c>
       <c r="D149">
-        <v>6.864035265297696</v>
+        <v>6.834734888425388</v>
       </c>
       <c r="E149">
-        <v>6.851650851782168</v>
+        <v>6.859836470385129</v>
       </c>
       <c r="F149">
-        <v>6.824444933699255</v>
+        <v>6.976356910345059</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6.783191876222692</v>
+        <v>6.834410858814182</v>
       </c>
       <c r="C150">
-        <v>6.751252251877431</v>
+        <v>6.765774313894452</v>
       </c>
       <c r="D150">
-        <v>6.833783674193321</v>
+        <v>6.804684086957657</v>
       </c>
       <c r="E150">
-        <v>6.821468568593841</v>
+        <v>6.829629802612149</v>
       </c>
       <c r="F150">
-        <v>6.794366715111727</v>
+        <v>6.951669644634689</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6.753464058705583</v>
+        <v>6.804037260839219</v>
       </c>
       <c r="C151">
-        <v>6.722093162341348</v>
+        <v>6.736527182023724</v>
       </c>
       <c r="D151">
-        <v>6.803411259111392</v>
+        <v>6.774512735090895</v>
       </c>
       <c r="E151">
-        <v>6.791165110421823</v>
+        <v>6.799295161986866</v>
       </c>
       <c r="F151">
-        <v>6.764170201163891</v>
+        <v>6.926717288034363</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6.723608709870709</v>
+        <v>6.77355015569593</v>
       </c>
       <c r="C152">
-        <v>6.692801107579641</v>
+        <v>6.707131968128659</v>
       </c>
       <c r="D152">
-        <v>6.772925505056116</v>
+        <v>6.744228292631943</v>
       </c>
       <c r="E152">
-        <v>6.760747975904523</v>
+        <v>6.768840379099089</v>
       </c>
       <c r="F152">
-        <v>6.733862735149066</v>
+        <v>6.901509525756414</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6.693633624470228</v>
+        <v>6.742956670056087</v>
       </c>
       <c r="C153">
-        <v>6.663383482781435</v>
+        <v>6.677597123284405</v>
       </c>
       <c r="D153">
-        <v>6.742333535636619</v>
+        <v>6.713837856788493</v>
       </c>
       <c r="E153">
-        <v>6.730224300510455</v>
+        <v>6.738272889673497</v>
       </c>
       <c r="F153">
-        <v>6.703451321938505</v>
+        <v>6.876055729942001</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6.663546205705734</v>
+        <v>6.712263581766933</v>
       </c>
       <c r="C154">
-        <v>6.633847356691081</v>
+        <v>6.64793070349509</v>
       </c>
       <c r="D154">
-        <v>6.711642121324747</v>
+        <v>6.683348182480956</v>
       </c>
       <c r="E154">
-        <v>6.699600870025178</v>
+        <v>6.707599777958826</v>
       </c>
       <c r="F154">
-        <v>6.672942613781863</v>
+        <v>6.850364981479594</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6.633353510779701</v>
+        <v>6.681477347172468</v>
       </c>
       <c r="C155">
-        <v>6.604199476682411</v>
+        <v>6.618140394709624</v>
       </c>
       <c r="D155">
-        <v>6.680857703874602</v>
+        <v>6.652765682191737</v>
       </c>
       <c r="E155">
-        <v>6.668884134801752</v>
+        <v>6.676827770774684</v>
       </c>
       <c r="F155">
-        <v>6.642342933033794</v>
+        <v>6.824446066741538</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6.603062239818554</v>
+        <v>6.650604080599997</v>
       </c>
       <c r="C156">
-        <v>6.574446287385741</v>
+        <v>6.588233523424663</v>
       </c>
       <c r="D156">
-        <v>6.649986407616683</v>
+        <v>6.622096466343606</v>
       </c>
       <c r="E156">
-        <v>6.638080233975616</v>
+        <v>6.64596327700555</v>
       </c>
       <c r="F156">
-        <v>6.611658307377898</v>
+        <v>6.798307493833119</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6.572678781604913</v>
+        <v>6.619649633024559</v>
       </c>
       <c r="C157">
-        <v>6.544593944246854</v>
+        <v>6.558217077061503</v>
       </c>
       <c r="D157">
-        <v>6.619034056902312</v>
+        <v>6.591346336079067</v>
       </c>
       <c r="E157">
-        <v>6.607194999074485</v>
+        <v>6.61501238172951</v>
       </c>
       <c r="F157">
-        <v>6.580894443595851</v>
+        <v>6.771957500551304</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6.542209199675575</v>
+        <v>6.588619553093774</v>
       </c>
       <c r="C158">
-        <v>6.514648323177778</v>
+        <v>6.528097717110079</v>
       </c>
       <c r="D158">
-        <v>6.588006191776717</v>
+        <v>6.560520821890219</v>
       </c>
       <c r="E158">
-        <v>6.576233984102069</v>
+        <v>6.583980882612345</v>
       </c>
       <c r="F158">
-        <v>6.550056791599754</v>
+        <v>6.745404057796807</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6.5116592757478</v>
+        <v>6.557519097303439</v>
       </c>
       <c r="C159">
-        <v>6.48461503904455</v>
+        <v>6.497881789002458</v>
       </c>
       <c r="D159">
-        <v>6.556908077632049</v>
+        <v>6.529625166391443</v>
       </c>
       <c r="E159">
-        <v>6.545202461216197</v>
+        <v>6.552874283874367</v>
       </c>
       <c r="F159">
-        <v>6.519150515709532</v>
+        <v>6.718654886255403</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6.481034500337957</v>
+        <v>6.526353306900858</v>
       </c>
       <c r="C160">
-        <v>6.454499449240833</v>
+        <v>6.467575348131405</v>
       </c>
       <c r="D160">
-        <v>6.525744724885729</v>
+        <v>6.498664369157233</v>
       </c>
       <c r="E160">
-        <v>6.514105454484551</v>
+        <v>6.521697829819205</v>
       </c>
       <c r="F160">
-        <v>6.488180536681579</v>
+        <v>6.691717453287749</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6.450340101523961</v>
+        <v>6.495126932284884</v>
       </c>
       <c r="C161">
-        <v>6.424306675063508</v>
+        <v>6.437184170138826</v>
       </c>
       <c r="D161">
-        <v>6.494520889134215</v>
+        <v>6.467643178816009</v>
       </c>
       <c r="E161">
-        <v>6.482947730386526</v>
+        <v>6.490456498994434</v>
       </c>
       <c r="F161">
-        <v>6.457151531749902</v>
+        <v>6.664598990655053</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6.419581051342222</v>
+        <v>6.463844514071804</v>
       </c>
       <c r="C162">
-        <v>6.394041601077205</v>
+        <v>6.406713741378526</v>
       </c>
       <c r="D162">
-        <v>6.463241103935137</v>
+        <v>6.436566108684</v>
       </c>
       <c r="E162">
-        <v>6.451733832466911</v>
+        <v>6.459155034629233</v>
       </c>
       <c r="F162">
-        <v>6.426067947442359</v>
+        <v>6.63730649711106</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6.388762077275139</v>
+        <v>6.432510371617388</v>
       </c>
       <c r="C163">
-        <v>6.363708897871401</v>
+        <v>6.376169320365521</v>
       </c>
       <c r="D163">
-        <v>6.431909676740442</v>
+        <v>6.40543745736298</v>
       </c>
       <c r="E163">
-        <v>6.420468070342434</v>
+        <v>6.427797939741933</v>
       </c>
       <c r="F163">
-        <v>6.394934019647192</v>
+        <v>6.609846742607551</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6.357887680428824</v>
+        <v>6.401128590176027</v>
       </c>
       <c r="C164">
-        <v>6.333313018885685</v>
+        <v>6.345555905265226</v>
       </c>
       <c r="D164">
-        <v>6.400530692493715</v>
+        <v>6.374261301547872</v>
       </c>
       <c r="E164">
-        <v>6.389154551591655</v>
+        <v>6.396389503671807</v>
       </c>
       <c r="F164">
-        <v>6.36375376139994</v>
+        <v>6.582226284654884</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6.326962136212195</v>
+        <v>6.369703076776089</v>
       </c>
       <c r="C165">
-        <v>6.302858223153307</v>
+        <v>6.314878243361866</v>
       </c>
       <c r="D165">
-        <v>6.369108063940351</v>
+        <v>6.34304152876437</v>
       </c>
       <c r="E165">
-        <v>6.357797173982809</v>
+        <v>6.364933799475787</v>
       </c>
       <c r="F165">
-        <v>6.332531005814415</v>
+        <v>6.554451462412668</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6.295989518253751</v>
+        <v>6.338237533716497</v>
       </c>
       <c r="C166">
-        <v>6.272348570988243</v>
+        <v>6.284140892984731</v>
       </c>
       <c r="D166">
-        <v>6.337645486362885</v>
+        <v>6.311781824222344</v>
       </c>
       <c r="E166">
-        <v>6.326399649138719</v>
+        <v>6.333434705388407</v>
       </c>
       <c r="F166">
-        <v>6.30126938399618</v>
+        <v>6.52652841607286</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6.264973693399094</v>
+        <v>6.306735480370456</v>
       </c>
       <c r="C167">
-        <v>6.241787945730289</v>
+        <v>6.253348167428435</v>
       </c>
       <c r="D167">
-        <v>6.306146473588747</v>
+        <v>6.280485701641761</v>
       </c>
       <c r="E167">
-        <v>6.294965502956405</v>
+        <v>6.301895905332215</v>
       </c>
       <c r="F167">
-        <v>6.269972356420451</v>
+        <v>6.498463085045562</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6.233918347648466</v>
+        <v>6.275200274385126</v>
       </c>
       <c r="C168">
-        <v>6.211180049147861</v>
+        <v>6.222504185529811</v>
       </c>
       <c r="D168">
-        <v>6.274614393813843</v>
+        <v>6.249156494652818</v>
       </c>
       <c r="E168">
-        <v>6.263498088767475</v>
+        <v>6.270320905604509</v>
       </c>
       <c r="F168">
-        <v>6.238643211753701</v>
+        <v>6.470261214896876</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6.202826978370459</v>
+        <v>6.243635092273232</v>
       </c>
       <c r="C169">
-        <v>6.180528421514509</v>
+        <v>6.19161288359895</v>
       </c>
       <c r="D169">
-        <v>6.243052410493683</v>
+        <v>6.21779737637335</v>
       </c>
       <c r="E169">
-        <v>6.232000595623775</v>
+        <v>6.238713037826101</v>
       </c>
       <c r="F169">
-        <v>6.207285071325686</v>
+        <v>6.441928369288743</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6.171702920008354</v>
+        <v>6.212042971574428</v>
       </c>
       <c r="C170">
-        <v>6.149836438137773</v>
+        <v>6.16067798625911</v>
       </c>
       <c r="D170">
-        <v>6.211463556025675</v>
+        <v>6.186411363907621</v>
       </c>
       <c r="E170">
-        <v>6.200476053325738</v>
+        <v>6.207075471757646</v>
       </c>
       <c r="F170">
-        <v>6.175900910848069</v>
+        <v>6.41346992595301</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6.140549336252703</v>
+        <v>6.180426794591892</v>
       </c>
       <c r="C171">
-        <v>6.119107325540306</v>
+        <v>6.129703063837261</v>
       </c>
       <c r="D171">
-        <v>6.179850714187477</v>
+        <v>6.155001322240275</v>
       </c>
       <c r="E171">
-        <v>6.16892734565693</v>
+        <v>6.17541122007316</v>
       </c>
       <c r="F171">
-        <v>6.144493550083471</v>
+        <v>6.384891093530422</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6.109369241969921</v>
+        <v>6.148789290012858</v>
       </c>
       <c r="C172">
-        <v>6.088344161690991</v>
+        <v>6.098691510955773</v>
       </c>
       <c r="D172">
-        <v>6.148216605045431</v>
+        <v>6.123569981136393</v>
       </c>
       <c r="E172">
-        <v>6.137357210111801</v>
+        <v>6.143723148029443</v>
       </c>
       <c r="F172">
-        <v>6.113065678475945</v>
+        <v>6.356196908775463</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6.078165500437616</v>
+        <v>6.117133070828385</v>
       </c>
       <c r="C173">
-        <v>6.057549886615976</v>
+        <v>6.067646551038838</v>
       </c>
       <c r="D173">
-        <v>6.116563835373217</v>
+        <v>6.092119928098357</v>
       </c>
       <c r="E173">
-        <v>6.105768253805078</v>
+        <v>6.112013979551046</v>
       </c>
       <c r="F173">
-        <v>6.081619845939504</v>
+        <v>6.327392244268633</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6.046940835949984</v>
+        <v>6.085460606363039</v>
       </c>
       <c r="C174">
-        <v>6.026727306868282</v>
+        <v>6.036571269747177</v>
       </c>
       <c r="D174">
-        <v>6.084894876238146</v>
+        <v>6.060653631238797</v>
       </c>
       <c r="E174">
-        <v>6.074162950125595</v>
+        <v>6.080286304385578</v>
       </c>
       <c r="F174">
-        <v>6.050158480179053</v>
+        <v>6.298481817218602</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6.015697839642351</v>
+        <v>6.053774249503647</v>
       </c>
       <c r="C175">
-        <v>5.995879101369407</v>
+        <v>6.005468598120239</v>
       </c>
       <c r="D175">
-        <v>6.053212068090679</v>
+        <v>6.029173428387335</v>
       </c>
       <c r="E175">
-        <v>6.042543655452718</v>
+        <v>6.048542585055241</v>
       </c>
       <c r="F175">
-        <v>6.018683889302967</v>
+        <v>6.269470186678268</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>5.984438973571296</v>
+        <v>6.022076240882225</v>
       </c>
       <c r="C176">
-        <v>5.965007828771269</v>
+        <v>5.974341327740176</v>
       </c>
       <c r="D176">
-        <v>6.021517649564331</v>
+        <v>5.99768154882478</v>
       </c>
       <c r="E176">
-        <v>6.010912604505394</v>
+        <v>6.016785162031327</v>
       </c>
       <c r="F176">
-        <v>5.987198263557647</v>
+        <v>6.240361768083117</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>5.953166581839474</v>
+        <v>5.990368697877334</v>
       </c>
       <c r="C177">
-        <v>5.934115930010649</v>
+        <v>5.943192128144316</v>
       </c>
       <c r="D177">
-        <v>5.989813741250148</v>
+        <v>5.966180107662541</v>
       </c>
       <c r="E177">
-        <v>5.979271926542719</v>
+        <v>5.98501625878873</v>
       </c>
       <c r="F177">
-        <v>5.955703691220407</v>
+        <v>6.211160829965098</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>5.921882889695308</v>
+        <v>5.958653645342257</v>
       </c>
       <c r="C178">
-        <v>5.90320573589937</v>
+        <v>5.912023523469482</v>
       </c>
       <c r="D178">
-        <v>5.958102358641031</v>
+        <v>5.934671115658031</v>
       </c>
       <c r="E178">
-        <v>5.947623640514355</v>
+        <v>5.953237988029148</v>
       </c>
       <c r="F178">
-        <v>5.924202149460252</v>
+        <v>6.181871502319315</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>5.890590017175769</v>
+        <v>5.926933002088537</v>
       </c>
       <c r="C179">
-        <v>5.872279467483933</v>
+        <v>5.880837931359853</v>
       </c>
       <c r="D179">
-        <v>5.926385427792982</v>
+        <v>5.903156485945115</v>
       </c>
       <c r="E179">
-        <v>5.915969669769308</v>
+        <v>5.921452365196857</v>
       </c>
       <c r="F179">
-        <v>5.892695525000446</v>
+        <v>6.152497782190157</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>5.859289975563769</v>
+        <v>5.895208589805857</v>
       </c>
       <c r="C180">
-        <v>5.841339252434499</v>
+        <v>5.849637654532376</v>
       </c>
       <c r="D180">
-        <v>5.894664763275437</v>
+        <v>5.871638033289194</v>
       </c>
       <c r="E180">
-        <v>5.884311839001566</v>
+        <v>5.889661299218346</v>
       </c>
       <c r="F180">
-        <v>5.861185605882801</v>
+        <v>6.123043532711151</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>5.827984681761593</v>
+        <v>5.863482147047652</v>
       </c>
       <c r="C181">
-        <v>5.810387120665779</v>
+        <v>5.818424872487778</v>
       </c>
       <c r="D181">
-        <v>5.862942099812781</v>
+        <v>5.84011748691865</v>
       </c>
       <c r="E181">
-        <v>5.852651884379918</v>
+        <v>5.857866601800273</v>
       </c>
       <c r="F181">
-        <v>5.829674093289205</v>
+        <v>6.09351249499643</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>5.796675953663916</v>
+        <v>5.831755316042024</v>
       </c>
       <c r="C182">
-        <v>5.779424996045646</v>
+        <v>5.787201674929904</v>
       </c>
       <c r="D182">
-        <v>5.831219089558124</v>
+        <v>5.808596485159628</v>
       </c>
       <c r="E182">
-        <v>5.820991452401741</v>
+        <v>5.826070013014352</v>
       </c>
       <c r="F182">
-        <v>5.798162604934304</v>
+        <v>6.063908284696191</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>5.765365523875681</v>
+        <v>5.800029665961053</v>
       </c>
       <c r="C183">
-        <v>5.748454737503331</v>
+        <v>5.755970045397162</v>
       </c>
       <c r="D183">
-        <v>5.79949728846111</v>
+        <v>5.777076589907148</v>
       </c>
       <c r="E183">
-        <v>5.789332108538177</v>
+        <v>5.794273174681156</v>
       </c>
       <c r="F183">
-        <v>5.766652674748072</v>
+        <v>6.034234400922655</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>5.734055036053886</v>
+        <v>5.768306686420724</v>
       </c>
       <c r="C184">
-        <v>5.717478118787939</v>
+        <v>5.724731867105329</v>
       </c>
       <c r="D184">
-        <v>5.767778188840073</v>
+        <v>5.745559281266147</v>
       </c>
       <c r="E184">
-        <v>5.757675345994161</v>
+        <v>5.762477632010155</v>
       </c>
       <c r="F184">
-        <v>5.735145764914348</v>
+        <v>6.004494228978756</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>5.702746055183545</v>
+        <v>5.736587787052435</v>
       </c>
       <c r="C185">
-        <v>5.686496797730373</v>
+        <v>5.693488942407298</v>
       </c>
       <c r="D185">
-        <v>5.736063204544894</v>
+        <v>5.71404596824051</v>
       </c>
       <c r="E185">
-        <v>5.726022578340633</v>
+        <v>5.730684883788662</v>
       </c>
       <c r="F185">
-        <v>5.703643259619279</v>
+        <v>5.974691040939997</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>5.671440065232403</v>
+        <v>5.704874315845901</v>
       </c>
       <c r="C186">
-        <v>5.655512396615069</v>
+        <v>5.662242979400143</v>
       </c>
       <c r="D186">
-        <v>5.704353671634123</v>
+        <v>5.682537988875227</v>
       </c>
       <c r="E186">
-        <v>5.694375143751747</v>
+        <v>5.698896341634574</v>
       </c>
       <c r="F186">
-        <v>5.672146478790022</v>
+        <v>5.944828005296579</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>5.640138477955396</v>
+        <v>5.673167547362704</v>
       </c>
       <c r="C187">
-        <v>5.624526456527483</v>
+        <v>5.630995606419098</v>
       </c>
       <c r="D187">
-        <v>5.672650869196721</v>
+        <v>5.651036613367557</v>
       </c>
       <c r="E187">
-        <v>5.6627343312198</v>
+        <v>5.66711332893842</v>
       </c>
       <c r="F187">
-        <v>5.640656673454477</v>
+        <v>5.914908183416753</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>5.608842640332132</v>
+        <v>5.641468693699</v>
       </c>
       <c r="C188">
-        <v>5.593540426884911</v>
+        <v>5.599748377491744</v>
       </c>
       <c r="D188">
-        <v>5.640956007491932</v>
+        <v>5.619543050699196</v>
       </c>
       <c r="E188">
-        <v>5.631101359762973</v>
+        <v>5.635337128642531</v>
       </c>
       <c r="F188">
-        <v>5.60917503290703</v>
+        <v>5.884934538890573</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>5.577553828253386</v>
+        <v>5.609778910037117</v>
       </c>
       <c r="C189">
-        <v>5.562555705657632</v>
+        <v>5.568502762058583</v>
       </c>
       <c r="D189">
-        <v>5.60927023461397</v>
+        <v>5.588058446366933</v>
       </c>
       <c r="E189">
-        <v>5.599477362538031</v>
+        <v>5.603568951194155</v>
       </c>
       <c r="F189">
-        <v>5.577702688125515</v>
+        <v>5.854909936557453</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>5.5462732486628</v>
+        <v>5.578099286472304</v>
       </c>
       <c r="C190">
-        <v>5.531573631139191</v>
+        <v>5.537260168251592</v>
       </c>
       <c r="D190">
-        <v>5.577594646907071</v>
+        <v>5.556583891717971</v>
       </c>
       <c r="E190">
-        <v>5.567863450240511</v>
+        <v>5.571809934534335</v>
       </c>
       <c r="F190">
-        <v>5.546240710742468</v>
+        <v>5.824837144921924</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>5.515002065819774</v>
+        <v>5.546430865297032</v>
       </c>
       <c r="C191">
-        <v>5.500595470447714</v>
+        <v>5.50602193366118</v>
       </c>
       <c r="D191">
-        <v>5.54593027936139</v>
+        <v>5.525120416545224</v>
       </c>
       <c r="E191">
-        <v>5.536260671268906</v>
+        <v>5.540061174839478</v>
       </c>
       <c r="F191">
-        <v>5.514790122193088</v>
+        <v>5.794718847431738</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>5.4837413827025</v>
+        <v>5.514774633695459</v>
       </c>
       <c r="C192">
-        <v>5.469622431672514</v>
+        <v>5.4747893256291</v>
       </c>
       <c r="D192">
-        <v>5.514278118185447</v>
+        <v>5.493669005836749</v>
       </c>
       <c r="E192">
-        <v>5.504669994039133</v>
+        <v>5.508323709467573</v>
       </c>
       <c r="F192">
-        <v>5.483351888645104</v>
+        <v>5.764557640650001</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>5.452492220652605</v>
+        <v>5.483131527040601</v>
       </c>
       <c r="C193">
-        <v>5.438655676043325</v>
+        <v>5.44356355829478</v>
       </c>
       <c r="D193">
-        <v>5.482639102816916</v>
+        <v>5.462230596097725</v>
       </c>
       <c r="E193">
-        <v>5.473092367484986</v>
+        <v>5.476598514402267</v>
       </c>
       <c r="F193">
-        <v>5.451926931160316</v>
+        <v>5.734356024389919</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>5.421255584635747</v>
+        <v>5.451502438168779</v>
       </c>
       <c r="C194">
-        <v>5.407696306363223</v>
+        <v>5.412345782123381</v>
       </c>
       <c r="D194">
-        <v>5.451014117482109</v>
+        <v>5.430806069764398</v>
       </c>
       <c r="E194">
-        <v>5.441528685956228</v>
+        <v>5.444886528245256</v>
       </c>
       <c r="F194">
-        <v>5.420516122382053</v>
+        <v>5.704116426206292</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>5.390032423253919</v>
+        <v>5.41988821003873</v>
       </c>
       <c r="C195">
-        <v>5.37674536954374</v>
+        <v>5.381137090633421</v>
       </c>
       <c r="D195">
-        <v>5.419404009754093</v>
+        <v>5.399396266085223</v>
       </c>
       <c r="E195">
-        <v>5.409979787626554</v>
+        <v>5.413188640809825</v>
       </c>
       <c r="F195">
-        <v>5.389120291064861</v>
+        <v>5.673841199506858</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>5.358823615089985</v>
+        <v>5.388289646074668</v>
       </c>
       <c r="C196">
-        <v>5.345803873708211</v>
+        <v>5.349938529352605</v>
       </c>
       <c r="D196">
-        <v>5.38780958247882</v>
+        <v>5.368001993208684</v>
       </c>
       <c r="E196">
-        <v>5.378446474745272</v>
+        <v>5.381505688704498</v>
       </c>
       <c r="F196">
-        <v>5.357740224365365</v>
+        <v>5.643532619808089</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>5.327630015471796</v>
+        <v>5.356707509331102</v>
       </c>
       <c r="C197">
-        <v>5.314872778208628</v>
+        <v>5.318751086302107</v>
       </c>
       <c r="D197">
-        <v>5.356231592894916</v>
+        <v>5.33662401530697</v>
       </c>
       <c r="E197">
-        <v>5.346929511925925</v>
+        <v>5.349838477475883</v>
       </c>
       <c r="F197">
-        <v>5.326376665841791</v>
+        <v>5.613192860997017</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>5.296452435808146</v>
+        <v>5.325142520564682</v>
       </c>
       <c r="C198">
-        <v>5.28395299116439</v>
+        <v>5.28757570561723</v>
       </c>
       <c r="D198">
-        <v>5.324670766411084</v>
+        <v>5.305263033452691</v>
       </c>
       <c r="E198">
-        <v>5.31542962184017</v>
+        <v>5.318187771707919</v>
       </c>
       <c r="F198">
-        <v>5.295030326902057</v>
+        <v>5.582824059692173</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>5.265291638464123</v>
+        <v>5.293595368303385</v>
       </c>
       <c r="C199">
-        <v>5.253045389141231</v>
+        <v>5.256413285727207</v>
       </c>
       <c r="D199">
-        <v>5.293127788499018</v>
+        <v>5.273919744812472</v>
       </c>
       <c r="E199">
-        <v>5.283947490632774</v>
+        <v>5.286554283514901</v>
       </c>
       <c r="F199">
-        <v>5.263701883822398</v>
+        <v>5.552428274285551</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>5.234148347546046</v>
+        <v>5.262066703373941</v>
       </c>
       <c r="C200">
-        <v>5.222150807684288</v>
+        <v>5.225264676080437</v>
       </c>
       <c r="D200">
-        <v>5.26160330784352</v>
+        <v>5.242594804328738</v>
       </c>
       <c r="E200">
-        <v>5.252483774246858</v>
+        <v>5.254938702775523</v>
       </c>
       <c r="F200">
-        <v>5.2323919686366</v>
+        <v>5.522007489350729</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>5.203023257933126</v>
+        <v>5.230557143198781</v>
       </c>
       <c r="C201">
-        <v>5.19127002951365</v>
+        <v>5.194130690011386</v>
       </c>
       <c r="D201">
-        <v>5.230097944223558</v>
+        <v>5.211288818233766</v>
       </c>
       <c r="E201">
-        <v>5.221039092623903</v>
+        <v>5.223341682826685</v>
       </c>
       <c r="F201">
-        <v>5.201101189166082</v>
+        <v>5.491563614354513</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>5.171917026691832</v>
+        <v>5.199067276097456</v>
       </c>
       <c r="C202">
-        <v>5.160403816025579</v>
+        <v>5.16301209870906</v>
       </c>
       <c r="D202">
-        <v>5.198612281974302</v>
+        <v>5.180002369883567</v>
       </c>
       <c r="E202">
-        <v>5.189614025773642</v>
+        <v>5.191763835952409</v>
       </c>
       <c r="F202">
-        <v>5.16983012766605</v>
+        <v>5.461098515893614</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>5.140830276066061</v>
+        <v>5.167597656176035</v>
       </c>
       <c r="C203">
-        <v>5.129552890694047</v>
+        <v>5.131909633330447</v>
       </c>
       <c r="D203">
-        <v>5.167146876533605</v>
+        <v>5.148736018761051</v>
       </c>
       <c r="E203">
-        <v>5.158209137000597</v>
+        <v>5.160205749063796</v>
       </c>
       <c r="F203">
-        <v>5.138579334253819</v>
+        <v>5.430613993788216</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>5.10976360258769</v>
+        <v>5.136148812663873</v>
       </c>
       <c r="C204">
-        <v>5.098717936946564</v>
+        <v>5.100823993043092</v>
       </c>
       <c r="D204">
-        <v>5.135702256765961</v>
+        <v>5.11749029038362</v>
       </c>
       <c r="E204">
-        <v>5.126824957523569</v>
+        <v>5.128667980288586</v>
       </c>
       <c r="F204">
-        <v>5.107349308715256</v>
+        <v>5.400111779145033</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>5.078717572838028</v>
+        <v>5.104721246285269</v>
       </c>
       <c r="C205">
-        <v>5.067899609822044</v>
+        <v>5.069755839068903</v>
       </c>
       <c r="D205">
-        <v>5.10427891987575</v>
+        <v>5.086265674957544</v>
       </c>
       <c r="E205">
-        <v>5.095461978325472</v>
+        <v>5.097151053379998</v>
       </c>
       <c r="F205">
-        <v>5.07614055441421</v>
+        <v>5.369593551671549</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>5.047692711323741</v>
+        <v>5.073315430287058</v>
       </c>
       <c r="C206">
-        <v>5.037098536585067</v>
+        <v>5.038705800848217</v>
       </c>
       <c r="D206">
-        <v>5.0728773413776</v>
+        <v>5.055062648708864</v>
       </c>
       <c r="E206">
-        <v>5.064120678767684</v>
+        <v>5.065655467436692</v>
       </c>
       <c r="F206">
-        <v>5.044953541890714</v>
+        <v>5.339060940211012</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>5.016689531794394</v>
+        <v>5.041931816008837</v>
       </c>
       <c r="C207">
-        <v>5.006315311000168</v>
+        <v>5.007674478613533</v>
       </c>
       <c r="D207">
-        <v>5.041497971323831</v>
+        <v>5.023881660170725</v>
       </c>
       <c r="E207">
-        <v>5.032801509686949</v>
+        <v>5.034181698174001</v>
       </c>
       <c r="F207">
-        <v>5.013788707281449</v>
+        <v>5.308515518663315</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>4.985708518824541</v>
+        <v>5.010570828984982</v>
       </c>
       <c r="C208">
-        <v>4.97555049747185</v>
+        <v>4.976662438380171</v>
       </c>
       <c r="D208">
-        <v>5.010141233560654</v>
+        <v>4.99272313170892</v>
       </c>
       <c r="E208">
-        <v>5.001504896549406</v>
+        <v>5.00273019330105</v>
       </c>
       <c r="F208">
-        <v>4.982646463753929</v>
+        <v>5.277958798826314</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>4.954750126636517</v>
+        <v>4.979232873506946</v>
       </c>
       <c r="C209">
-        <v>4.944804638733153</v>
+        <v>4.945670222055232</v>
       </c>
       <c r="D209">
-        <v>4.978807533354288</v>
+        <v>4.961587467522715</v>
       </c>
       <c r="E209">
-        <v>4.970231245155683</v>
+        <v>4.971301377645622</v>
       </c>
       <c r="F209">
-        <v>4.951527213831292</v>
+        <v>5.247392255687639</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>4.923814791075665</v>
+        <v>4.947918333000739</v>
       </c>
       <c r="C210">
-        <v>4.914078249609013</v>
+        <v>4.914698343384734</v>
       </c>
       <c r="D210">
-        <v>4.947497253242068</v>
+        <v>4.930475051897355</v>
       </c>
       <c r="E210">
-        <v>4.93898094115125</v>
+        <v>4.939895656608262</v>
       </c>
       <c r="F210">
-        <v>4.920431335451461</v>
+        <v>5.216817313019352</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>4.892902927864792</v>
+        <v>4.916627566559438</v>
       </c>
       <c r="C211">
-        <v>4.883371817603245</v>
+        <v>4.883747288046474</v>
       </c>
       <c r="D211">
-        <v>4.916210754277868</v>
+        <v>4.89938624520452</v>
       </c>
       <c r="E211">
-        <v>4.907754345209023</v>
+        <v>4.908513411707631</v>
       </c>
       <c r="F211">
-        <v>4.889359174567146</v>
+        <v>5.1862353463175</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>4.862014927468753</v>
+        <v>4.885360919385015</v>
       </c>
       <c r="C212">
-        <v>4.852685811937546</v>
+        <v>4.852817520558768</v>
       </c>
       <c r="D212">
-        <v>4.884948381087516</v>
+        <v>4.868321383973699</v>
       </c>
       <c r="E212">
-        <v>4.876551799214516</v>
+        <v>4.877155003578763</v>
       </c>
       <c r="F212">
-        <v>4.858311071959129</v>
+        <v>5.155647681916273</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>4.831151158499587</v>
+        <v>4.854118718352098</v>
       </c>
       <c r="C213">
-        <v>4.822020678484047</v>
+        <v>4.821909480219424</v>
       </c>
       <c r="D213">
-        <v>4.853710457936375</v>
+        <v>4.837280796906532</v>
       </c>
       <c r="E213">
-        <v>4.845373631317259</v>
+        <v>4.845820777491679</v>
       </c>
       <c r="F213">
-        <v>4.827287346703391</v>
+        <v>5.125055611448937</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>4.800311976615168</v>
+        <v>4.822901272380152</v>
       </c>
       <c r="C214">
-        <v>4.791376837134615</v>
+        <v>4.791023583635716</v>
       </c>
       <c r="D214">
-        <v>4.822497292101117</v>
+        <v>4.80626479279771</v>
       </c>
       <c r="E214">
-        <v>4.814220149800998</v>
+        <v>4.814511058239035</v>
       </c>
       <c r="F214">
-        <v>4.796288300402566</v>
+        <v>5.094460383016805</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>4.769497717048767</v>
+        <v>4.791708865141164</v>
       </c>
       <c r="C215">
-        <v>4.760754693607343</v>
+        <v>4.760160228323446</v>
       </c>
       <c r="D215">
-        <v>4.791309175848995</v>
+        <v>4.775273656967562</v>
       </c>
       <c r="E215">
-        <v>4.783091644759203</v>
+        <v>4.783226151532795</v>
       </c>
       <c r="F215">
-        <v>4.765314217931456</v>
+        <v>5.0638631967739</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>4.738708694715123</v>
+        <v>4.760541779119075</v>
       </c>
       <c r="C216">
-        <v>4.730154633347114</v>
+        <v>4.729319789060825</v>
       </c>
       <c r="D216">
-        <v>4.760146383201564</v>
+        <v>4.744307667643799</v>
       </c>
       <c r="E216">
-        <v>4.751988394432566</v>
+        <v>4.751966350752254</v>
       </c>
       <c r="F216">
-        <v>4.734365372149322</v>
+        <v>5.033265216941017</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>4.707945213058978</v>
+        <v>4.729400279359042</v>
       </c>
       <c r="C217">
-        <v>4.699577018750574</v>
+        <v>4.698502623107635</v>
       </c>
       <c r="D217">
-        <v>4.729009175344956</v>
+        <v>4.713367086546975</v>
       </c>
       <c r="E217">
-        <v>4.720910660998889</v>
+        <v>4.720731931755501</v>
       </c>
       <c r="F217">
-        <v>4.703442021812082</v>
+        <v>5.002667574729265</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>4.677207559407154</v>
+        <v>4.698284614106641</v>
       </c>
       <c r="C218">
-        <v>4.669022199247104</v>
+        <v>4.667709069707034</v>
       </c>
       <c r="D218">
-        <v>4.697897798828724</v>
+        <v>4.682452157607296</v>
       </c>
       <c r="E218">
-        <v>4.689858687284711</v>
+        <v>4.689523152871147</v>
       </c>
       <c r="F218">
-        <v>4.67254440187584</v>
+        <v>4.972071363391316</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>4.646496000993965</v>
+        <v>4.667195002548656</v>
       </c>
       <c r="C219">
-        <v>4.638490507369854</v>
+        <v>4.636939448546617</v>
       </c>
       <c r="D219">
-        <v>4.666812483200594</v>
+        <v>4.651563110652218</v>
       </c>
       <c r="E219">
-        <v>4.658832708969402</v>
+        <v>4.658340262522256</v>
       </c>
       <c r="F219">
-        <v>4.641672742689256</v>
+        <v>4.94147762777544</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>4.615810797220371</v>
+        <v>4.636131675181907</v>
       </c>
       <c r="C220">
-        <v>4.607982256596097</v>
+        <v>4.606194065118075</v>
       </c>
       <c r="D220">
-        <v>4.63575344981798</v>
+        <v>4.62070016736927</v>
       </c>
       <c r="E220">
-        <v>4.627832947448395</v>
+        <v>4.627183494206091</v>
       </c>
       <c r="F220">
-        <v>4.610827262532439</v>
+        <v>4.910887393026258</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>4.585152193074734</v>
+        <v>4.605094843317921</v>
       </c>
       <c r="C221">
-        <v>4.577497746126292</v>
+        <v>4.575473207364128</v>
       </c>
       <c r="D221">
-        <v>4.604720907499384</v>
+        <v>4.589863535518035</v>
       </c>
       <c r="E221">
-        <v>4.596859608735107</v>
+        <v>4.596053066000482</v>
       </c>
       <c r="F221">
-        <v>4.580008166135499</v>
+        <v>4.880301646918888</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>4.554520418653633</v>
+        <v>4.574084703912235</v>
       </c>
       <c r="C222">
-        <v>4.54703726248777</v>
+        <v>4.54477714659617</v>
       </c>
       <c r="D222">
-        <v>4.573715054743281</v>
+        <v>4.559053408175154</v>
       </c>
       <c r="E222">
-        <v>4.565912890717008</v>
+        <v>4.564949187364719</v>
       </c>
       <c r="F222">
-        <v>4.549215642953931</v>
+        <v>4.849721343914954</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>4.52391569331685</v>
+        <v>4.543101432146005</v>
       </c>
       <c r="C223">
-        <v>4.516601076293933</v>
+        <v>4.514106143544415</v>
       </c>
       <c r="D223">
-        <v>4.542736067876763</v>
+        <v>4.528269971576136</v>
       </c>
       <c r="E223">
-        <v>4.534992979940052</v>
+        <v>4.533872055206785</v>
       </c>
       <c r="F223">
-        <v>4.518449877789587</v>
+        <v>4.819147403532686</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>4.49333822683106</v>
+        <v>4.512145209470124</v>
       </c>
       <c r="C224">
-        <v>4.486189443672382</v>
+        <v>4.483460445334366</v>
       </c>
       <c r="D224">
-        <v>4.511784127402751</v>
+        <v>4.497513400774061</v>
       </c>
       <c r="E224">
-        <v>4.504100050019638</v>
+        <v>4.502821852944463</v>
       </c>
       <c r="F224">
-        <v>4.48771104392958</v>
+        <v>4.788580721653222</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>4.462788216480486</v>
+        <v>4.481216201918179</v>
       </c>
       <c r="C225">
-        <v>4.455802610797934</v>
+        <v>4.452840284594891</v>
       </c>
       <c r="D225">
-        <v>4.480859400734333</v>
+        <v>4.466783858089202</v>
       </c>
       <c r="E225">
-        <v>4.473234265632531</v>
+        <v>4.471798756565259</v>
       </c>
       <c r="F225">
-        <v>4.456999300496669</v>
+        <v>4.758022163562336</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>4.432265847604839</v>
+        <v>4.450314564221062</v>
       </c>
       <c r="C226">
-        <v>4.425440810485297</v>
+        <v>4.422245875544754</v>
       </c>
       <c r="D226">
-        <v>4.449962047550262</v>
+        <v>4.436081497727818</v>
       </c>
       <c r="E226">
-        <v>4.442395783361709</v>
+        <v>4.44080293146628</v>
       </c>
       <c r="F226">
-        <v>4.426314798724668</v>
+        <v>4.727472564559814</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>4.401771299437858</v>
+        <v>4.419440437080104</v>
       </c>
       <c r="C227">
-        <v>4.395104261833479</v>
+        <v>4.39167743240962</v>
       </c>
       <c r="D227">
-        <v>4.41909220284311</v>
+        <v>4.405406466573254</v>
       </c>
       <c r="E227">
-        <v>4.411584749407323</v>
+        <v>4.409834531296565</v>
       </c>
       <c r="F227">
-        <v>4.395657683844502</v>
+        <v>4.696932733800874</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>4.371304740895422</v>
+        <v>4.388593960751777</v>
       </c>
       <c r="C228">
-        <v>4.364793175807667</v>
+        <v>4.361135155928452</v>
       </c>
       <c r="D228">
-        <v>4.38825000682791</v>
+        <v>4.374758901944552</v>
       </c>
       <c r="E228">
-        <v>4.380801300682709</v>
+        <v>4.378893703349381</v>
       </c>
       <c r="F228">
-        <v>4.365028091426487</v>
+        <v>4.666403456760807</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>4.340866329357322</v>
+        <v>4.357775264664446</v>
       </c>
       <c r="C229">
-        <v>4.334507752099654</v>
+        <v>4.330619235344866</v>
       </c>
       <c r="D229">
-        <v>4.357435593342572</v>
+        <v>4.344138930958893</v>
       </c>
       <c r="E229">
-        <v>4.350045567946204</v>
+        <v>4.347980585950607</v>
       </c>
       <c r="F229">
-        <v>4.334426146391732</v>
+        <v>4.635885493792398</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>4.310456217498948</v>
+        <v>4.326984470324545</v>
       </c>
       <c r="C230">
-        <v>4.30424817783837</v>
+        <v>4.300129832918247</v>
       </c>
       <c r="D230">
-        <v>4.326649086990924</v>
+        <v>4.313546676351987</v>
       </c>
       <c r="E230">
-        <v>4.319317673371119</v>
+        <v>4.317095307113097</v>
       </c>
       <c r="F230">
-        <v>4.303851969492132</v>
+        <v>4.605379572967156</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>4.280074549437321</v>
+        <v>4.296221691340611</v>
       </c>
       <c r="C231">
-        <v>4.274014633371839</v>
+        <v>4.269667124921813</v>
       </c>
       <c r="D231">
-        <v>4.295890597031404</v>
+        <v>4.282982252974444</v>
       </c>
       <c r="E231">
-        <v>4.288617729772939</v>
+        <v>4.28623798942229</v>
       </c>
       <c r="F231">
-        <v>4.273305673589556</v>
+        <v>4.574886407843795</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>4.249721459324087</v>
+        <v>4.265487036531616</v>
       </c>
       <c r="C232">
-        <v>4.243807289318473</v>
+        <v>4.239231271359726</v>
       </c>
       <c r="D232">
-        <v>4.265160227733765</v>
+        <v>4.252445765572397</v>
       </c>
       <c r="E232">
-        <v>4.257945845691542</v>
+        <v>4.255408747829406</v>
       </c>
       <c r="F232">
-        <v>4.242787363208256</v>
+        <v>4.544406687465877</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>4.219397076561927</v>
+        <v>4.234780608236137</v>
       </c>
       <c r="C233">
-        <v>4.213626305597766</v>
+        <v>4.20882242434342</v>
       </c>
       <c r="D233">
-        <v>4.234458083458835</v>
+        <v>4.221937314932415</v>
       </c>
       <c r="E233">
-        <v>4.227302122395574</v>
+        <v>4.224607688638869</v>
       </c>
       <c r="F233">
-        <v>4.212297135469642</v>
+        <v>4.513941078042436</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>4.189101523841789</v>
+        <v>4.204102499920012</v>
       </c>
       <c r="C234">
-        <v>4.183471835359907</v>
+        <v>4.17844071188135</v>
       </c>
       <c r="D234">
-        <v>4.203784259274053</v>
+        <v>4.191456995817256</v>
       </c>
       <c r="E234">
-        <v>4.196686652749684</v>
+        <v>4.19383491287497</v>
       </c>
       <c r="F234">
-        <v>4.181835084127931</v>
+        <v>4.483490220511207</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>4.158834916358336</v>
+        <v>4.173452794867472</v>
       </c>
       <c r="C235">
-        <v>4.153344023994088</v>
+        <v>4.148086273214076</v>
       </c>
       <c r="D235">
-        <v>4.173138841764168</v>
+        <v>4.161004895998122</v>
       </c>
       <c r="E235">
-        <v>4.166099525962331</v>
+        <v>4.163090515437809</v>
       </c>
       <c r="F235">
-        <v>4.151401296330832</v>
+        <v>4.453054741714099</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>4.128597363333197</v>
+        <v>4.142831579006562</v>
       </c>
       <c r="C236">
-        <v>4.123243007995439</v>
+        <v>4.117759233995473</v>
       </c>
       <c r="D236">
-        <v>4.142521909460551</v>
+        <v>4.130581096391459</v>
       </c>
       <c r="E236">
-        <v>4.135540825068527</v>
+        <v>4.132374582613878</v>
       </c>
       <c r="F236">
-        <v>4.120995851246541</v>
+        <v>4.422635247167266</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>4.09838896948682</v>
+        <v>4.112238930096343</v>
       </c>
       <c r="C237">
-        <v>4.093168916697171</v>
+        <v>4.087459713177623</v>
       </c>
       <c r="D237">
-        <v>4.111933541120567</v>
+        <v>4.100185674771382</v>
       </c>
       <c r="E237">
-        <v>4.105010626230124</v>
+        <v>4.101687196685324</v>
       </c>
       <c r="F237">
-        <v>4.090618825346635</v>
+        <v>4.392232320796793</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>4.068209833449077</v>
+        <v>4.081674919665262</v>
       </c>
       <c r="C238">
-        <v>4.063121873554675</v>
+        <v>4.057187815883418</v>
       </c>
       <c r="D238">
-        <v>4.081373808259547</v>
+        <v>4.069818703278298</v>
       </c>
       <c r="E238">
-        <v>4.07450900141582</v>
+        <v>4.071028435490633</v>
       </c>
       <c r="F238">
-        <v>4.060270289853767</v>
+        <v>4.361846528214372</v>
       </c>
     </row>
   </sheetData>
